--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\팀관리\해외사이트 Pending Item\최신공유버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\팀관리\해외사이트 Pending Item\OverseaPendingItems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -638,12 +638,12 @@
     <definedName name="隐藏" localSheetId="7">#REF!</definedName>
     <definedName name="隐藏">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="987">
   <si>
     <t>No</t>
   </si>
@@ -8674,6 +8674,23 @@
   </si>
   <si>
     <t>설비 동작 테스트 中 (현상 재현되지 않음)</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est</t>
+    </r>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
 </sst>
@@ -13299,7 +13316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="402">
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14433,12 +14450,39 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14454,33 +14498,6 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14510,6 +14527,9 @@
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="828">
@@ -15561,7 +15581,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15656,7 +15676,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15739,7 +15759,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15822,7 +15842,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15905,7 +15925,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23439,12 +23459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="375" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="384"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="377"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23568,151 +23588,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="385" t="s">
+      <c r="A2" s="378" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="389" t="s">
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="382" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="376" t="s">
+      <c r="E2" s="384" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="376"/>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="376"/>
-      <c r="J2" s="376"/>
-      <c r="K2" s="376"/>
-      <c r="L2" s="376"/>
-      <c r="M2" s="376"/>
-      <c r="N2" s="376"/>
-      <c r="O2" s="376"/>
-      <c r="P2" s="376"/>
-      <c r="Q2" s="376"/>
-      <c r="R2" s="376"/>
-      <c r="S2" s="376"/>
-      <c r="T2" s="376"/>
-      <c r="U2" s="376"/>
-      <c r="V2" s="376"/>
-      <c r="W2" s="376"/>
-      <c r="X2" s="376"/>
-      <c r="Y2" s="376"/>
-      <c r="Z2" s="376"/>
-      <c r="AA2" s="376"/>
-      <c r="AB2" s="376"/>
-      <c r="AC2" s="376"/>
-      <c r="AD2" s="376"/>
-      <c r="AE2" s="376"/>
-      <c r="AF2" s="376"/>
-      <c r="AG2" s="375" t="s">
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
+      <c r="H2" s="384"/>
+      <c r="I2" s="384"/>
+      <c r="J2" s="384"/>
+      <c r="K2" s="384"/>
+      <c r="L2" s="384"/>
+      <c r="M2" s="384"/>
+      <c r="N2" s="384"/>
+      <c r="O2" s="384"/>
+      <c r="P2" s="384"/>
+      <c r="Q2" s="384"/>
+      <c r="R2" s="384"/>
+      <c r="S2" s="384"/>
+      <c r="T2" s="384"/>
+      <c r="U2" s="384"/>
+      <c r="V2" s="384"/>
+      <c r="W2" s="384"/>
+      <c r="X2" s="384"/>
+      <c r="Y2" s="384"/>
+      <c r="Z2" s="384"/>
+      <c r="AA2" s="384"/>
+      <c r="AB2" s="384"/>
+      <c r="AC2" s="384"/>
+      <c r="AD2" s="384"/>
+      <c r="AE2" s="384"/>
+      <c r="AF2" s="384"/>
+      <c r="AG2" s="385" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="376"/>
-      <c r="AI2" s="376"/>
-      <c r="AJ2" s="376"/>
-      <c r="AK2" s="376"/>
-      <c r="AL2" s="376"/>
-      <c r="AM2" s="376"/>
-      <c r="AN2" s="376"/>
-      <c r="AO2" s="376"/>
-      <c r="AP2" s="376"/>
-      <c r="AQ2" s="376"/>
-      <c r="AR2" s="376"/>
-      <c r="AS2" s="376"/>
-      <c r="AT2" s="376"/>
-      <c r="AU2" s="376"/>
-      <c r="AV2" s="376"/>
-      <c r="AW2" s="376"/>
-      <c r="AX2" s="376"/>
-      <c r="AY2" s="376"/>
-      <c r="AZ2" s="376"/>
-      <c r="BA2" s="376"/>
-      <c r="BB2" s="376"/>
-      <c r="BC2" s="376"/>
-      <c r="BD2" s="376"/>
-      <c r="BE2" s="376"/>
-      <c r="BF2" s="376"/>
-      <c r="BG2" s="376"/>
-      <c r="BH2" s="376"/>
-      <c r="BI2" s="376"/>
-      <c r="BJ2" s="376"/>
-      <c r="BK2" s="377"/>
-      <c r="BL2" s="375" t="s">
+      <c r="AH2" s="384"/>
+      <c r="AI2" s="384"/>
+      <c r="AJ2" s="384"/>
+      <c r="AK2" s="384"/>
+      <c r="AL2" s="384"/>
+      <c r="AM2" s="384"/>
+      <c r="AN2" s="384"/>
+      <c r="AO2" s="384"/>
+      <c r="AP2" s="384"/>
+      <c r="AQ2" s="384"/>
+      <c r="AR2" s="384"/>
+      <c r="AS2" s="384"/>
+      <c r="AT2" s="384"/>
+      <c r="AU2" s="384"/>
+      <c r="AV2" s="384"/>
+      <c r="AW2" s="384"/>
+      <c r="AX2" s="384"/>
+      <c r="AY2" s="384"/>
+      <c r="AZ2" s="384"/>
+      <c r="BA2" s="384"/>
+      <c r="BB2" s="384"/>
+      <c r="BC2" s="384"/>
+      <c r="BD2" s="384"/>
+      <c r="BE2" s="384"/>
+      <c r="BF2" s="384"/>
+      <c r="BG2" s="384"/>
+      <c r="BH2" s="384"/>
+      <c r="BI2" s="384"/>
+      <c r="BJ2" s="384"/>
+      <c r="BK2" s="386"/>
+      <c r="BL2" s="385" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="376"/>
-      <c r="BN2" s="376"/>
-      <c r="BO2" s="376"/>
-      <c r="BP2" s="376"/>
-      <c r="BQ2" s="376"/>
-      <c r="BR2" s="376"/>
-      <c r="BS2" s="376"/>
-      <c r="BT2" s="376"/>
-      <c r="BU2" s="376"/>
-      <c r="BV2" s="376"/>
-      <c r="BW2" s="376"/>
-      <c r="BX2" s="376"/>
-      <c r="BY2" s="376"/>
-      <c r="BZ2" s="376"/>
-      <c r="CA2" s="376"/>
-      <c r="CB2" s="376"/>
-      <c r="CC2" s="376"/>
-      <c r="CD2" s="376"/>
-      <c r="CE2" s="376"/>
-      <c r="CF2" s="376"/>
-      <c r="CG2" s="376"/>
-      <c r="CH2" s="376"/>
-      <c r="CI2" s="376"/>
-      <c r="CJ2" s="376"/>
-      <c r="CK2" s="376"/>
-      <c r="CL2" s="376"/>
-      <c r="CM2" s="376"/>
-      <c r="CN2" s="376"/>
-      <c r="CO2" s="376"/>
-      <c r="CP2" s="375" t="s">
+      <c r="BM2" s="384"/>
+      <c r="BN2" s="384"/>
+      <c r="BO2" s="384"/>
+      <c r="BP2" s="384"/>
+      <c r="BQ2" s="384"/>
+      <c r="BR2" s="384"/>
+      <c r="BS2" s="384"/>
+      <c r="BT2" s="384"/>
+      <c r="BU2" s="384"/>
+      <c r="BV2" s="384"/>
+      <c r="BW2" s="384"/>
+      <c r="BX2" s="384"/>
+      <c r="BY2" s="384"/>
+      <c r="BZ2" s="384"/>
+      <c r="CA2" s="384"/>
+      <c r="CB2" s="384"/>
+      <c r="CC2" s="384"/>
+      <c r="CD2" s="384"/>
+      <c r="CE2" s="384"/>
+      <c r="CF2" s="384"/>
+      <c r="CG2" s="384"/>
+      <c r="CH2" s="384"/>
+      <c r="CI2" s="384"/>
+      <c r="CJ2" s="384"/>
+      <c r="CK2" s="384"/>
+      <c r="CL2" s="384"/>
+      <c r="CM2" s="384"/>
+      <c r="CN2" s="384"/>
+      <c r="CO2" s="384"/>
+      <c r="CP2" s="385" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="376"/>
-      <c r="CR2" s="376"/>
-      <c r="CS2" s="376"/>
-      <c r="CT2" s="376"/>
-      <c r="CU2" s="376"/>
-      <c r="CV2" s="376"/>
-      <c r="CW2" s="376"/>
-      <c r="CX2" s="376"/>
-      <c r="CY2" s="376"/>
-      <c r="CZ2" s="376"/>
-      <c r="DA2" s="376"/>
-      <c r="DB2" s="376"/>
-      <c r="DC2" s="376"/>
-      <c r="DD2" s="376"/>
-      <c r="DE2" s="376"/>
-      <c r="DF2" s="376"/>
-      <c r="DG2" s="376"/>
-      <c r="DH2" s="376"/>
-      <c r="DI2" s="376"/>
-      <c r="DJ2" s="376"/>
-      <c r="DK2" s="376"/>
-      <c r="DL2" s="376"/>
-      <c r="DM2" s="376"/>
-      <c r="DN2" s="376"/>
-      <c r="DO2" s="376"/>
-      <c r="DP2" s="376"/>
-      <c r="DQ2" s="376"/>
-      <c r="DR2" s="376"/>
-      <c r="DS2" s="376"/>
-      <c r="DT2" s="377"/>
-      <c r="DU2" s="378" t="s">
+      <c r="CQ2" s="384"/>
+      <c r="CR2" s="384"/>
+      <c r="CS2" s="384"/>
+      <c r="CT2" s="384"/>
+      <c r="CU2" s="384"/>
+      <c r="CV2" s="384"/>
+      <c r="CW2" s="384"/>
+      <c r="CX2" s="384"/>
+      <c r="CY2" s="384"/>
+      <c r="CZ2" s="384"/>
+      <c r="DA2" s="384"/>
+      <c r="DB2" s="384"/>
+      <c r="DC2" s="384"/>
+      <c r="DD2" s="384"/>
+      <c r="DE2" s="384"/>
+      <c r="DF2" s="384"/>
+      <c r="DG2" s="384"/>
+      <c r="DH2" s="384"/>
+      <c r="DI2" s="384"/>
+      <c r="DJ2" s="384"/>
+      <c r="DK2" s="384"/>
+      <c r="DL2" s="384"/>
+      <c r="DM2" s="384"/>
+      <c r="DN2" s="384"/>
+      <c r="DO2" s="384"/>
+      <c r="DP2" s="384"/>
+      <c r="DQ2" s="384"/>
+      <c r="DR2" s="384"/>
+      <c r="DS2" s="384"/>
+      <c r="DT2" s="386"/>
+      <c r="DU2" s="387" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="387"/>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="390"/>
+      <c r="A3" s="380"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="383"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24073,14 +24093,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="379"/>
+      <c r="DU3" s="388"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="380" t="s">
+      <c r="B4" s="389" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="381"/>
+      <c r="C4" s="390"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -27069,11 +27089,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="CP2:DT2"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="B4:C4"/>
@@ -27081,13 +27103,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="AG2:BK2"/>
     <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27633,11 +27653,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="401" t="s">
+        <v>986</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\팀관리\해외사이트 Pending Item\OverseaPendingItems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naky\Desktop\해외사이트PendingItems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14417,6 +14417,9 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="48" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="150" fillId="57" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14450,6 +14453,27 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="77" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="79" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14477,27 +14501,6 @@
     <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="77" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="79" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14527,9 +14530,6 @@
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="828">
@@ -15581,7 +15581,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15676,7 +15676,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15759,7 +15759,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15842,7 +15842,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15925,7 +15925,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16959,41 +16959,41 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="364">
+      <c r="A2" s="365">
         <v>1</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="367" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="368" t="s">
+      <c r="C2" s="369" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A3" s="365"/>
-      <c r="B3" s="367"/>
-      <c r="C3" s="369"/>
+      <c r="A3" s="366"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="370"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="364">
+      <c r="A4" s="365">
         <v>2</v>
       </c>
-      <c r="B4" s="366" t="s">
+      <c r="B4" s="367" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="368" t="s">
+      <c r="C4" s="369" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="370"/>
-      <c r="B5" s="371"/>
-      <c r="C5" s="372"/>
+      <c r="A5" s="371"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="373"/>
     </row>
     <row r="6" spans="1:3" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A6" s="365"/>
-      <c r="B6" s="367"/>
-      <c r="C6" s="369"/>
+      <c r="A6" s="366"/>
+      <c r="B6" s="368"/>
+      <c r="C6" s="370"/>
     </row>
     <row r="7" spans="1:3" ht="70.5" customHeight="1" thickBot="1">
       <c r="A7" s="17">
@@ -18109,7 +18109,7 @@
       <c r="B3" s="261">
         <v>1</v>
       </c>
-      <c r="C3" s="398" t="s">
+      <c r="C3" s="399" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="262"/>
@@ -18143,7 +18143,7 @@
       <c r="B4" s="261">
         <v>2</v>
       </c>
-      <c r="C4" s="398"/>
+      <c r="C4" s="399"/>
       <c r="D4" s="267"/>
       <c r="E4" s="268" t="s">
         <v>767</v>
@@ -18175,7 +18175,7 @@
       <c r="B5" s="261">
         <v>3</v>
       </c>
-      <c r="C5" s="398"/>
+      <c r="C5" s="399"/>
       <c r="D5" s="262"/>
       <c r="E5" s="263" t="s">
         <v>788</v>
@@ -18205,7 +18205,7 @@
       <c r="B6" s="261">
         <v>4</v>
       </c>
-      <c r="C6" s="398"/>
+      <c r="C6" s="399"/>
       <c r="D6" s="262"/>
       <c r="E6" s="263" t="s">
         <v>783</v>
@@ -18235,7 +18235,7 @@
       <c r="B7" s="261">
         <v>5</v>
       </c>
-      <c r="C7" s="398"/>
+      <c r="C7" s="399"/>
       <c r="D7" s="262"/>
       <c r="E7" s="263" t="s">
         <v>769</v>
@@ -18267,7 +18267,7 @@
       <c r="B8" s="261">
         <v>6</v>
       </c>
-      <c r="C8" s="398"/>
+      <c r="C8" s="399"/>
       <c r="D8" s="262"/>
       <c r="E8" s="263" t="s">
         <v>771</v>
@@ -18299,7 +18299,7 @@
       <c r="B9" s="261">
         <v>7</v>
       </c>
-      <c r="C9" s="398"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="262"/>
       <c r="E9" s="263" t="s">
         <v>773</v>
@@ -18331,7 +18331,7 @@
       <c r="B10" s="261">
         <v>8</v>
       </c>
-      <c r="C10" s="398"/>
+      <c r="C10" s="399"/>
       <c r="D10" s="262"/>
       <c r="E10" s="263" t="s">
         <v>785</v>
@@ -18361,7 +18361,7 @@
       <c r="B11" s="261">
         <v>9</v>
       </c>
-      <c r="C11" s="398"/>
+      <c r="C11" s="399"/>
       <c r="D11" s="262"/>
       <c r="E11" s="263" t="s">
         <v>786</v>
@@ -18391,7 +18391,7 @@
       <c r="B12" s="261">
         <v>10</v>
       </c>
-      <c r="C12" s="398"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="262"/>
       <c r="E12" s="263" t="s">
         <v>775</v>
@@ -18470,7 +18470,7 @@
       <c r="B15" s="261">
         <v>11</v>
       </c>
-      <c r="C15" s="398" t="s">
+      <c r="C15" s="399" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="262"/>
@@ -18504,7 +18504,7 @@
       <c r="B16" s="261">
         <v>12</v>
       </c>
-      <c r="C16" s="398"/>
+      <c r="C16" s="399"/>
       <c r="D16" s="262"/>
       <c r="E16" s="263" t="s">
         <v>787</v>
@@ -18536,7 +18536,7 @@
       <c r="B17" s="261">
         <v>13</v>
       </c>
-      <c r="C17" s="398"/>
+      <c r="C17" s="399"/>
       <c r="D17" s="262"/>
       <c r="E17" s="263" t="s">
         <v>780</v>
@@ -18566,7 +18566,7 @@
       <c r="B18" s="261">
         <v>14</v>
       </c>
-      <c r="C18" s="398"/>
+      <c r="C18" s="399"/>
       <c r="D18" s="262"/>
       <c r="E18" s="263" t="s">
         <v>781</v>
@@ -21720,7 +21720,7 @@
       <c r="B3" s="169">
         <v>1</v>
       </c>
-      <c r="C3" s="399" t="s">
+      <c r="C3" s="400" t="s">
         <v>669</v>
       </c>
       <c r="D3" s="167"/>
@@ -21747,7 +21747,7 @@
       <c r="B4" s="169">
         <v>2</v>
       </c>
-      <c r="C4" s="399"/>
+      <c r="C4" s="400"/>
       <c r="D4" s="167"/>
       <c r="E4" s="160" t="s">
         <v>163</v>
@@ -21774,7 +21774,7 @@
       <c r="B5" s="169">
         <v>3</v>
       </c>
-      <c r="C5" s="399"/>
+      <c r="C5" s="400"/>
       <c r="D5" s="167"/>
       <c r="E5" s="160" t="s">
         <v>164</v>
@@ -21797,7 +21797,7 @@
       <c r="B6" s="169">
         <v>4</v>
       </c>
-      <c r="C6" s="399"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="167"/>
       <c r="E6" s="161" t="s">
         <v>165</v>
@@ -21820,7 +21820,7 @@
       <c r="B7" s="169">
         <v>5</v>
       </c>
-      <c r="C7" s="399"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="167"/>
       <c r="E7" s="161" t="s">
         <v>166</v>
@@ -21897,7 +21897,7 @@
       <c r="B10" s="169">
         <v>8</v>
       </c>
-      <c r="C10" s="399" t="s">
+      <c r="C10" s="400" t="s">
         <v>672</v>
       </c>
       <c r="D10" s="167"/>
@@ -21924,7 +21924,7 @@
       <c r="B11" s="169">
         <v>9</v>
       </c>
-      <c r="C11" s="399"/>
+      <c r="C11" s="400"/>
       <c r="D11" s="167"/>
       <c r="E11" s="161" t="s">
         <v>171</v>
@@ -21947,7 +21947,7 @@
       <c r="B12" s="169">
         <v>10</v>
       </c>
-      <c r="C12" s="399"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="167"/>
       <c r="E12" s="161" t="s">
         <v>172</v>
@@ -21974,7 +21974,7 @@
       <c r="B13" s="169">
         <v>11</v>
       </c>
-      <c r="C13" s="399"/>
+      <c r="C13" s="400"/>
       <c r="D13" s="167"/>
       <c r="E13" s="161" t="s">
         <v>173</v>
@@ -21999,7 +21999,7 @@
       <c r="B14" s="169">
         <v>12</v>
       </c>
-      <c r="C14" s="399"/>
+      <c r="C14" s="400"/>
       <c r="D14" s="167"/>
       <c r="E14" s="161" t="s">
         <v>175</v>
@@ -22022,7 +22022,7 @@
       <c r="B15" s="169">
         <v>13</v>
       </c>
-      <c r="C15" s="399"/>
+      <c r="C15" s="400"/>
       <c r="D15" s="167"/>
       <c r="E15" s="161" t="s">
         <v>176</v>
@@ -22072,7 +22072,7 @@
       <c r="B17" s="169">
         <v>15</v>
       </c>
-      <c r="C17" s="399" t="s">
+      <c r="C17" s="400" t="s">
         <v>674</v>
       </c>
       <c r="D17" s="167"/>
@@ -22099,7 +22099,7 @@
       <c r="B18" s="169">
         <v>16</v>
       </c>
-      <c r="C18" s="399"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="167"/>
       <c r="E18" s="161" t="s">
         <v>181</v>
@@ -22124,7 +22124,7 @@
       <c r="B19" s="169">
         <v>17</v>
       </c>
-      <c r="C19" s="399" t="s">
+      <c r="C19" s="400" t="s">
         <v>675</v>
       </c>
       <c r="D19" s="167"/>
@@ -22151,7 +22151,7 @@
       <c r="B20" s="169">
         <v>18</v>
       </c>
-      <c r="C20" s="399"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="167"/>
       <c r="E20" s="160" t="s">
         <v>185</v>
@@ -22176,7 +22176,7 @@
       <c r="B21" s="169">
         <v>19</v>
       </c>
-      <c r="C21" s="399"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="167"/>
       <c r="E21" s="161" t="s">
         <v>186</v>
@@ -22201,7 +22201,7 @@
       <c r="B22" s="169">
         <v>20</v>
       </c>
-      <c r="C22" s="399"/>
+      <c r="C22" s="400"/>
       <c r="D22" s="167"/>
       <c r="E22" s="161" t="s">
         <v>188</v>
@@ -22226,7 +22226,7 @@
       <c r="B23" s="169">
         <v>21</v>
       </c>
-      <c r="C23" s="399"/>
+      <c r="C23" s="400"/>
       <c r="D23" s="167"/>
       <c r="E23" s="161" t="s">
         <v>189</v>
@@ -22249,7 +22249,7 @@
       <c r="B24" s="169">
         <v>22</v>
       </c>
-      <c r="C24" s="399" t="s">
+      <c r="C24" s="400" t="s">
         <v>676</v>
       </c>
       <c r="D24" s="167"/>
@@ -22280,7 +22280,7 @@
       <c r="B25" s="169">
         <v>23</v>
       </c>
-      <c r="C25" s="399"/>
+      <c r="C25" s="400"/>
       <c r="D25" s="167"/>
       <c r="E25" s="161" t="s">
         <v>191</v>
@@ -22309,7 +22309,7 @@
       <c r="B26" s="169">
         <v>24</v>
       </c>
-      <c r="C26" s="399" t="s">
+      <c r="C26" s="400" t="s">
         <v>677</v>
       </c>
       <c r="D26" s="167"/>
@@ -22338,7 +22338,7 @@
       <c r="B27" s="169">
         <v>25</v>
       </c>
-      <c r="C27" s="399"/>
+      <c r="C27" s="400"/>
       <c r="D27" s="167"/>
       <c r="E27" s="161" t="s">
         <v>194</v>
@@ -22365,7 +22365,7 @@
       <c r="B28" s="169">
         <v>26</v>
       </c>
-      <c r="C28" s="399"/>
+      <c r="C28" s="400"/>
       <c r="D28" s="167"/>
       <c r="E28" s="161" t="s">
         <v>195</v>
@@ -22392,7 +22392,7 @@
       <c r="B29" s="169">
         <v>27</v>
       </c>
-      <c r="C29" s="399"/>
+      <c r="C29" s="400"/>
       <c r="D29" s="167"/>
       <c r="E29" s="161" t="s">
         <v>196</v>
@@ -22419,7 +22419,7 @@
       <c r="B30" s="169">
         <v>28</v>
       </c>
-      <c r="C30" s="399"/>
+      <c r="C30" s="400"/>
       <c r="D30" s="167"/>
       <c r="E30" s="161" t="s">
         <v>197</v>
@@ -22446,7 +22446,7 @@
       <c r="B31" s="169">
         <v>29</v>
       </c>
-      <c r="C31" s="399"/>
+      <c r="C31" s="400"/>
       <c r="D31" s="167"/>
       <c r="E31" s="161" t="s">
         <v>198</v>
@@ -22473,7 +22473,7 @@
       <c r="B32" s="169">
         <v>30</v>
       </c>
-      <c r="C32" s="399"/>
+      <c r="C32" s="400"/>
       <c r="D32" s="167"/>
       <c r="E32" s="161" t="s">
         <v>199</v>
@@ -22500,7 +22500,7 @@
       <c r="B33" s="169">
         <v>31</v>
       </c>
-      <c r="C33" s="399"/>
+      <c r="C33" s="400"/>
       <c r="D33" s="167"/>
       <c r="E33" s="161" t="s">
         <v>200</v>
@@ -22527,7 +22527,7 @@
       <c r="B34" s="169">
         <v>32</v>
       </c>
-      <c r="C34" s="399"/>
+      <c r="C34" s="400"/>
       <c r="D34" s="167"/>
       <c r="E34" s="161" t="s">
         <v>201</v>
@@ -22554,7 +22554,7 @@
       <c r="B35" s="169">
         <v>33</v>
       </c>
-      <c r="C35" s="399"/>
+      <c r="C35" s="400"/>
       <c r="D35" s="167"/>
       <c r="E35" s="161" t="s">
         <v>202</v>
@@ -22581,7 +22581,7 @@
       <c r="B36" s="169">
         <v>34</v>
       </c>
-      <c r="C36" s="399"/>
+      <c r="C36" s="400"/>
       <c r="D36" s="167"/>
       <c r="E36" s="161" t="s">
         <v>203</v>
@@ -22608,7 +22608,7 @@
       <c r="B37" s="169">
         <v>35</v>
       </c>
-      <c r="C37" s="399" t="s">
+      <c r="C37" s="400" t="s">
         <v>678</v>
       </c>
       <c r="D37" s="167"/>
@@ -22635,7 +22635,7 @@
       <c r="B38" s="169">
         <v>36</v>
       </c>
-      <c r="C38" s="399"/>
+      <c r="C38" s="400"/>
       <c r="D38" s="167"/>
       <c r="E38" s="172" t="s">
         <v>206</v>
@@ -22660,7 +22660,7 @@
       <c r="B39" s="169">
         <v>37</v>
       </c>
-      <c r="C39" s="399"/>
+      <c r="C39" s="400"/>
       <c r="D39" s="167"/>
       <c r="E39" s="172" t="s">
         <v>208</v>
@@ -22685,7 +22685,7 @@
       <c r="B40" s="169">
         <v>38</v>
       </c>
-      <c r="C40" s="399"/>
+      <c r="C40" s="400"/>
       <c r="D40" s="167"/>
       <c r="E40" s="172" t="s">
         <v>209</v>
@@ -22710,7 +22710,7 @@
       <c r="B41" s="169">
         <v>39</v>
       </c>
-      <c r="C41" s="399"/>
+      <c r="C41" s="400"/>
       <c r="D41" s="167"/>
       <c r="E41" s="172" t="s">
         <v>210</v>
@@ -22735,7 +22735,7 @@
       <c r="B42" s="169">
         <v>40</v>
       </c>
-      <c r="C42" s="399"/>
+      <c r="C42" s="400"/>
       <c r="D42" s="167"/>
       <c r="E42" s="172" t="s">
         <v>212</v>
@@ -22762,7 +22762,7 @@
       <c r="B43" s="169">
         <v>41</v>
       </c>
-      <c r="C43" s="399"/>
+      <c r="C43" s="400"/>
       <c r="D43" s="167"/>
       <c r="E43" s="172" t="s">
         <v>215</v>
@@ -23365,47 +23365,47 @@
       <c r="N36" s="174"/>
     </row>
     <row r="37" spans="2:14" ht="13.5">
-      <c r="B37" s="400" t="s">
+      <c r="B37" s="401" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="400"/>
-      <c r="D37" s="400"/>
-      <c r="E37" s="400"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="400"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="401"/>
+      <c r="E37" s="401"/>
+      <c r="F37" s="401"/>
+      <c r="G37" s="401"/>
       <c r="N37" s="175"/>
     </row>
     <row r="38" spans="2:14" ht="13.5">
-      <c r="B38" s="400" t="s">
+      <c r="B38" s="401" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="400"/>
-      <c r="D38" s="400"/>
-      <c r="E38" s="400"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="400"/>
+      <c r="C38" s="401"/>
+      <c r="D38" s="401"/>
+      <c r="E38" s="401"/>
+      <c r="F38" s="401"/>
+      <c r="G38" s="401"/>
       <c r="N38" s="175"/>
     </row>
     <row r="39" spans="2:14" ht="13.5">
-      <c r="B39" s="400" t="s">
+      <c r="B39" s="401" t="s">
         <v>542</v>
       </c>
-      <c r="C39" s="400"/>
-      <c r="D39" s="400"/>
-      <c r="E39" s="400"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="400"/>
+      <c r="C39" s="401"/>
+      <c r="D39" s="401"/>
+      <c r="E39" s="401"/>
+      <c r="F39" s="401"/>
+      <c r="G39" s="401"/>
       <c r="N39" s="175"/>
     </row>
     <row r="40" spans="2:14" ht="13.5">
-      <c r="B40" s="400" t="s">
+      <c r="B40" s="401" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="400"/>
-      <c r="D40" s="400"/>
-      <c r="E40" s="400"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="400"/>
+      <c r="C40" s="401"/>
+      <c r="D40" s="401"/>
+      <c r="E40" s="401"/>
+      <c r="F40" s="401"/>
+      <c r="G40" s="401"/>
       <c r="N40" s="175"/>
     </row>
     <row r="41" spans="2:14" ht="13.5">
@@ -23459,12 +23459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="383" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="377"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23588,151 +23588,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="378" t="s">
+      <c r="A2" s="386" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="382" t="s">
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="390" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="384" t="s">
+      <c r="E2" s="377" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="384"/>
-      <c r="I2" s="384"/>
-      <c r="J2" s="384"/>
-      <c r="K2" s="384"/>
-      <c r="L2" s="384"/>
-      <c r="M2" s="384"/>
-      <c r="N2" s="384"/>
-      <c r="O2" s="384"/>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="384"/>
-      <c r="R2" s="384"/>
-      <c r="S2" s="384"/>
-      <c r="T2" s="384"/>
-      <c r="U2" s="384"/>
-      <c r="V2" s="384"/>
-      <c r="W2" s="384"/>
-      <c r="X2" s="384"/>
-      <c r="Y2" s="384"/>
-      <c r="Z2" s="384"/>
-      <c r="AA2" s="384"/>
-      <c r="AB2" s="384"/>
-      <c r="AC2" s="384"/>
-      <c r="AD2" s="384"/>
-      <c r="AE2" s="384"/>
-      <c r="AF2" s="384"/>
-      <c r="AG2" s="385" t="s">
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="377"/>
+      <c r="U2" s="377"/>
+      <c r="V2" s="377"/>
+      <c r="W2" s="377"/>
+      <c r="X2" s="377"/>
+      <c r="Y2" s="377"/>
+      <c r="Z2" s="377"/>
+      <c r="AA2" s="377"/>
+      <c r="AB2" s="377"/>
+      <c r="AC2" s="377"/>
+      <c r="AD2" s="377"/>
+      <c r="AE2" s="377"/>
+      <c r="AF2" s="377"/>
+      <c r="AG2" s="376" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="384"/>
-      <c r="AI2" s="384"/>
-      <c r="AJ2" s="384"/>
-      <c r="AK2" s="384"/>
-      <c r="AL2" s="384"/>
-      <c r="AM2" s="384"/>
-      <c r="AN2" s="384"/>
-      <c r="AO2" s="384"/>
-      <c r="AP2" s="384"/>
-      <c r="AQ2" s="384"/>
-      <c r="AR2" s="384"/>
-      <c r="AS2" s="384"/>
-      <c r="AT2" s="384"/>
-      <c r="AU2" s="384"/>
-      <c r="AV2" s="384"/>
-      <c r="AW2" s="384"/>
-      <c r="AX2" s="384"/>
-      <c r="AY2" s="384"/>
-      <c r="AZ2" s="384"/>
-      <c r="BA2" s="384"/>
-      <c r="BB2" s="384"/>
-      <c r="BC2" s="384"/>
-      <c r="BD2" s="384"/>
-      <c r="BE2" s="384"/>
-      <c r="BF2" s="384"/>
-      <c r="BG2" s="384"/>
-      <c r="BH2" s="384"/>
-      <c r="BI2" s="384"/>
-      <c r="BJ2" s="384"/>
-      <c r="BK2" s="386"/>
-      <c r="BL2" s="385" t="s">
+      <c r="AH2" s="377"/>
+      <c r="AI2" s="377"/>
+      <c r="AJ2" s="377"/>
+      <c r="AK2" s="377"/>
+      <c r="AL2" s="377"/>
+      <c r="AM2" s="377"/>
+      <c r="AN2" s="377"/>
+      <c r="AO2" s="377"/>
+      <c r="AP2" s="377"/>
+      <c r="AQ2" s="377"/>
+      <c r="AR2" s="377"/>
+      <c r="AS2" s="377"/>
+      <c r="AT2" s="377"/>
+      <c r="AU2" s="377"/>
+      <c r="AV2" s="377"/>
+      <c r="AW2" s="377"/>
+      <c r="AX2" s="377"/>
+      <c r="AY2" s="377"/>
+      <c r="AZ2" s="377"/>
+      <c r="BA2" s="377"/>
+      <c r="BB2" s="377"/>
+      <c r="BC2" s="377"/>
+      <c r="BD2" s="377"/>
+      <c r="BE2" s="377"/>
+      <c r="BF2" s="377"/>
+      <c r="BG2" s="377"/>
+      <c r="BH2" s="377"/>
+      <c r="BI2" s="377"/>
+      <c r="BJ2" s="377"/>
+      <c r="BK2" s="378"/>
+      <c r="BL2" s="376" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="384"/>
-      <c r="BN2" s="384"/>
-      <c r="BO2" s="384"/>
-      <c r="BP2" s="384"/>
-      <c r="BQ2" s="384"/>
-      <c r="BR2" s="384"/>
-      <c r="BS2" s="384"/>
-      <c r="BT2" s="384"/>
-      <c r="BU2" s="384"/>
-      <c r="BV2" s="384"/>
-      <c r="BW2" s="384"/>
-      <c r="BX2" s="384"/>
-      <c r="BY2" s="384"/>
-      <c r="BZ2" s="384"/>
-      <c r="CA2" s="384"/>
-      <c r="CB2" s="384"/>
-      <c r="CC2" s="384"/>
-      <c r="CD2" s="384"/>
-      <c r="CE2" s="384"/>
-      <c r="CF2" s="384"/>
-      <c r="CG2" s="384"/>
-      <c r="CH2" s="384"/>
-      <c r="CI2" s="384"/>
-      <c r="CJ2" s="384"/>
-      <c r="CK2" s="384"/>
-      <c r="CL2" s="384"/>
-      <c r="CM2" s="384"/>
-      <c r="CN2" s="384"/>
-      <c r="CO2" s="384"/>
-      <c r="CP2" s="385" t="s">
+      <c r="BM2" s="377"/>
+      <c r="BN2" s="377"/>
+      <c r="BO2" s="377"/>
+      <c r="BP2" s="377"/>
+      <c r="BQ2" s="377"/>
+      <c r="BR2" s="377"/>
+      <c r="BS2" s="377"/>
+      <c r="BT2" s="377"/>
+      <c r="BU2" s="377"/>
+      <c r="BV2" s="377"/>
+      <c r="BW2" s="377"/>
+      <c r="BX2" s="377"/>
+      <c r="BY2" s="377"/>
+      <c r="BZ2" s="377"/>
+      <c r="CA2" s="377"/>
+      <c r="CB2" s="377"/>
+      <c r="CC2" s="377"/>
+      <c r="CD2" s="377"/>
+      <c r="CE2" s="377"/>
+      <c r="CF2" s="377"/>
+      <c r="CG2" s="377"/>
+      <c r="CH2" s="377"/>
+      <c r="CI2" s="377"/>
+      <c r="CJ2" s="377"/>
+      <c r="CK2" s="377"/>
+      <c r="CL2" s="377"/>
+      <c r="CM2" s="377"/>
+      <c r="CN2" s="377"/>
+      <c r="CO2" s="377"/>
+      <c r="CP2" s="376" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="384"/>
-      <c r="CR2" s="384"/>
-      <c r="CS2" s="384"/>
-      <c r="CT2" s="384"/>
-      <c r="CU2" s="384"/>
-      <c r="CV2" s="384"/>
-      <c r="CW2" s="384"/>
-      <c r="CX2" s="384"/>
-      <c r="CY2" s="384"/>
-      <c r="CZ2" s="384"/>
-      <c r="DA2" s="384"/>
-      <c r="DB2" s="384"/>
-      <c r="DC2" s="384"/>
-      <c r="DD2" s="384"/>
-      <c r="DE2" s="384"/>
-      <c r="DF2" s="384"/>
-      <c r="DG2" s="384"/>
-      <c r="DH2" s="384"/>
-      <c r="DI2" s="384"/>
-      <c r="DJ2" s="384"/>
-      <c r="DK2" s="384"/>
-      <c r="DL2" s="384"/>
-      <c r="DM2" s="384"/>
-      <c r="DN2" s="384"/>
-      <c r="DO2" s="384"/>
-      <c r="DP2" s="384"/>
-      <c r="DQ2" s="384"/>
-      <c r="DR2" s="384"/>
-      <c r="DS2" s="384"/>
-      <c r="DT2" s="386"/>
-      <c r="DU2" s="387" t="s">
+      <c r="CQ2" s="377"/>
+      <c r="CR2" s="377"/>
+      <c r="CS2" s="377"/>
+      <c r="CT2" s="377"/>
+      <c r="CU2" s="377"/>
+      <c r="CV2" s="377"/>
+      <c r="CW2" s="377"/>
+      <c r="CX2" s="377"/>
+      <c r="CY2" s="377"/>
+      <c r="CZ2" s="377"/>
+      <c r="DA2" s="377"/>
+      <c r="DB2" s="377"/>
+      <c r="DC2" s="377"/>
+      <c r="DD2" s="377"/>
+      <c r="DE2" s="377"/>
+      <c r="DF2" s="377"/>
+      <c r="DG2" s="377"/>
+      <c r="DH2" s="377"/>
+      <c r="DI2" s="377"/>
+      <c r="DJ2" s="377"/>
+      <c r="DK2" s="377"/>
+      <c r="DL2" s="377"/>
+      <c r="DM2" s="377"/>
+      <c r="DN2" s="377"/>
+      <c r="DO2" s="377"/>
+      <c r="DP2" s="377"/>
+      <c r="DQ2" s="377"/>
+      <c r="DR2" s="377"/>
+      <c r="DS2" s="377"/>
+      <c r="DT2" s="378"/>
+      <c r="DU2" s="379" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="380"/>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="383"/>
+      <c r="A3" s="388"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="391"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24093,14 +24093,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="388"/>
+      <c r="DU3" s="380"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="389" t="s">
+      <c r="B4" s="381" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="390"/>
+      <c r="C4" s="382"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -24359,10 +24359,10 @@
     </row>
     <row r="6" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="93"/>
-      <c r="B6" s="373" t="s">
+      <c r="B6" s="374" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="374"/>
+      <c r="C6" s="375"/>
       <c r="D6" s="94"/>
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
@@ -24621,10 +24621,10 @@
     </row>
     <row r="8" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="93"/>
-      <c r="B8" s="373" t="s">
+      <c r="B8" s="374" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="374"/>
+      <c r="C8" s="375"/>
       <c r="D8" s="94"/>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
@@ -25016,10 +25016,10 @@
     </row>
     <row r="11" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="93"/>
-      <c r="B11" s="373" t="s">
+      <c r="B11" s="374" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="374"/>
+      <c r="C11" s="375"/>
       <c r="D11" s="94"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
@@ -25278,10 +25278,10 @@
     </row>
     <row r="13" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="93"/>
-      <c r="B13" s="373" t="s">
+      <c r="B13" s="374" t="s">
         <v>440</v>
       </c>
-      <c r="C13" s="374"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="94"/>
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
@@ -25540,10 +25540,10 @@
     </row>
     <row r="15" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="93"/>
-      <c r="B15" s="373" t="s">
+      <c r="B15" s="374" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="374"/>
+      <c r="C15" s="375"/>
       <c r="D15" s="94"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
@@ -25802,10 +25802,10 @@
     </row>
     <row r="17" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="93"/>
-      <c r="B17" s="373" t="s">
+      <c r="B17" s="374" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="375"/>
       <c r="D17" s="94"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
@@ -26064,10 +26064,10 @@
     </row>
     <row r="19" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="93"/>
-      <c r="B19" s="373" t="s">
+      <c r="B19" s="374" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="374"/>
+      <c r="C19" s="375"/>
       <c r="D19" s="94"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
@@ -26320,10 +26320,10 @@
     </row>
     <row r="21" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="93"/>
-      <c r="B21" s="373" t="s">
+      <c r="B21" s="374" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="374"/>
+      <c r="C21" s="375"/>
       <c r="D21" s="94"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
@@ -26576,10 +26576,10 @@
     </row>
     <row r="23" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="93"/>
-      <c r="B23" s="373" t="s">
+      <c r="B23" s="374" t="s">
         <v>449</v>
       </c>
-      <c r="C23" s="374"/>
+      <c r="C23" s="375"/>
       <c r="D23" s="94"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
@@ -26832,10 +26832,10 @@
     </row>
     <row r="25" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="93"/>
-      <c r="B25" s="373" t="s">
+      <c r="B25" s="374" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="374"/>
+      <c r="C25" s="375"/>
       <c r="D25" s="94"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
@@ -27089,6 +27089,18 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="CP2:DT2"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AG2:BK2"/>
+    <mergeCell ref="BL2:CO2"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
@@ -27096,18 +27108,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="CP2:DT2"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AG2:BK2"/>
-    <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27650,17 +27650,25 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="364" t="s">
         <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -28976,17 +28984,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.75" hidden="1" customHeight="1"/>
     <row r="2" spans="2:10" hidden="1">
-      <c r="B2" s="393" t="s">
+      <c r="B2" s="394" t="s">
         <v>849</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
     </row>
     <row r="3" spans="2:10" ht="54" hidden="1">
       <c r="B3" s="42" t="s">
@@ -29021,7 +29029,7 @@
       <c r="B4" s="186">
         <v>1</v>
       </c>
-      <c r="C4" s="391" t="s">
+      <c r="C4" s="392" t="s">
         <v>857</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -29050,7 +29058,7 @@
       <c r="B5" s="186">
         <v>2</v>
       </c>
-      <c r="C5" s="392"/>
+      <c r="C5" s="393"/>
       <c r="D5" s="37" t="s">
         <v>859</v>
       </c>
@@ -29077,7 +29085,7 @@
       <c r="B6" s="186">
         <v>3</v>
       </c>
-      <c r="C6" s="392"/>
+      <c r="C6" s="393"/>
       <c r="D6" s="37" t="s">
         <v>860</v>
       </c>
@@ -29104,7 +29112,7 @@
       <c r="B7" s="186">
         <v>4</v>
       </c>
-      <c r="C7" s="391" t="s">
+      <c r="C7" s="392" t="s">
         <v>844</v>
       </c>
       <c r="D7" s="45" t="s">
@@ -29120,10 +29128,10 @@
         <v>81</v>
       </c>
       <c r="H7" s="185"/>
-      <c r="I7" s="391" t="s">
+      <c r="I7" s="392" t="s">
         <v>328</v>
       </c>
-      <c r="J7" s="394">
+      <c r="J7" s="395">
         <v>43242</v>
       </c>
     </row>
@@ -29131,7 +29139,7 @@
       <c r="B8" s="186">
         <v>5</v>
       </c>
-      <c r="C8" s="392"/>
+      <c r="C8" s="393"/>
       <c r="D8" s="45" t="s">
         <v>862</v>
       </c>
@@ -29145,14 +29153,14 @@
         <v>82</v>
       </c>
       <c r="H8" s="185"/>
-      <c r="I8" s="391"/>
-      <c r="J8" s="394"/>
+      <c r="I8" s="392"/>
+      <c r="J8" s="395"/>
     </row>
     <row r="9" spans="2:10" ht="81.75" hidden="1" customHeight="1">
       <c r="B9" s="186">
         <v>6</v>
       </c>
-      <c r="C9" s="392"/>
+      <c r="C9" s="393"/>
       <c r="D9" s="45" t="s">
         <v>847</v>
       </c>
@@ -29293,7 +29301,7 @@
       <c r="B14" s="186">
         <v>11</v>
       </c>
-      <c r="C14" s="391" t="s">
+      <c r="C14" s="392" t="s">
         <v>866</v>
       </c>
       <c r="D14" s="45" t="s">
@@ -29322,7 +29330,7 @@
       <c r="B15" s="186">
         <v>12</v>
       </c>
-      <c r="C15" s="392"/>
+      <c r="C15" s="393"/>
       <c r="D15" s="37" t="s">
         <v>845</v>
       </c>
@@ -29346,17 +29354,17 @@
       </c>
     </row>
     <row r="16" spans="2:10" hidden="1">
-      <c r="B16" s="393" t="s">
+      <c r="B16" s="394" t="s">
         <v>868</v>
       </c>
-      <c r="C16" s="393"/>
-      <c r="D16" s="393"/>
-      <c r="E16" s="393"/>
-      <c r="F16" s="393"/>
-      <c r="G16" s="393"/>
-      <c r="H16" s="393"/>
-      <c r="I16" s="393"/>
-      <c r="J16" s="393"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="394"/>
+      <c r="G16" s="394"/>
+      <c r="H16" s="394"/>
+      <c r="I16" s="394"/>
+      <c r="J16" s="394"/>
     </row>
     <row r="17" spans="2:10" ht="54" hidden="1">
       <c r="B17" s="42" t="s">
@@ -29391,7 +29399,7 @@
       <c r="B18" s="186">
         <v>1</v>
       </c>
-      <c r="C18" s="391" t="s">
+      <c r="C18" s="392" t="s">
         <v>871</v>
       </c>
       <c r="D18" s="37" t="s">
@@ -29420,7 +29428,7 @@
       <c r="B19" s="186">
         <v>2</v>
       </c>
-      <c r="C19" s="392"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="37" t="s">
         <v>872</v>
       </c>
@@ -29447,7 +29455,7 @@
       <c r="B20" s="186">
         <v>3</v>
       </c>
-      <c r="C20" s="392"/>
+      <c r="C20" s="393"/>
       <c r="D20" s="37" t="s">
         <v>874</v>
       </c>
@@ -29474,7 +29482,7 @@
       <c r="B21" s="186">
         <v>4</v>
       </c>
-      <c r="C21" s="392"/>
+      <c r="C21" s="393"/>
       <c r="D21" s="37" t="s">
         <v>314</v>
       </c>
@@ -29495,7 +29503,7 @@
       <c r="B22" s="186">
         <v>5</v>
       </c>
-      <c r="C22" s="392"/>
+      <c r="C22" s="393"/>
       <c r="D22" s="37" t="s">
         <v>875</v>
       </c>
@@ -29522,7 +29530,7 @@
       <c r="B23" s="186">
         <v>6</v>
       </c>
-      <c r="C23" s="392"/>
+      <c r="C23" s="393"/>
       <c r="D23" s="37" t="s">
         <v>841</v>
       </c>
@@ -29569,7 +29577,7 @@
       <c r="B25" s="186">
         <v>8</v>
       </c>
-      <c r="C25" s="391" t="s">
+      <c r="C25" s="392" t="s">
         <v>877</v>
       </c>
       <c r="D25" s="37" t="s">
@@ -29598,7 +29606,7 @@
       <c r="B26" s="186">
         <v>9</v>
       </c>
-      <c r="C26" s="392"/>
+      <c r="C26" s="393"/>
       <c r="D26" s="37" t="s">
         <v>842</v>
       </c>
@@ -29625,7 +29633,7 @@
       <c r="B27" s="186">
         <v>10</v>
       </c>
-      <c r="C27" s="392"/>
+      <c r="C27" s="393"/>
       <c r="D27" s="37" t="s">
         <v>878</v>
       </c>
@@ -29646,7 +29654,7 @@
       <c r="B28" s="186">
         <v>11</v>
       </c>
-      <c r="C28" s="392"/>
+      <c r="C28" s="393"/>
       <c r="D28" s="37" t="s">
         <v>298</v>
       </c>
@@ -32259,7 +32267,7 @@
       <c r="B3" s="285">
         <v>1</v>
       </c>
-      <c r="C3" s="395" t="s">
+      <c r="C3" s="396" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="278"/>
@@ -32291,7 +32299,7 @@
       <c r="B4" s="285">
         <v>2</v>
       </c>
-      <c r="C4" s="396"/>
+      <c r="C4" s="397"/>
       <c r="D4" s="282"/>
       <c r="E4" s="347" t="s">
         <v>791</v>
@@ -32323,7 +32331,7 @@
       <c r="B5" s="285">
         <v>3</v>
       </c>
-      <c r="C5" s="397"/>
+      <c r="C5" s="398"/>
       <c r="D5" s="351"/>
       <c r="E5" s="286" t="s">
         <v>790</v>
@@ -32353,7 +32361,7 @@
       <c r="B6" s="285">
         <v>4</v>
       </c>
-      <c r="C6" s="396"/>
+      <c r="C6" s="397"/>
       <c r="D6" s="278"/>
       <c r="E6" s="363" t="s">
         <v>967</v>
@@ -32385,7 +32393,7 @@
       <c r="B7" s="285">
         <v>5</v>
       </c>
-      <c r="C7" s="395" t="s">
+      <c r="C7" s="396" t="s">
         <v>246</v>
       </c>
       <c r="D7" s="282"/>
@@ -32419,7 +32427,7 @@
       <c r="B8" s="285">
         <v>6</v>
       </c>
-      <c r="C8" s="396"/>
+      <c r="C8" s="397"/>
       <c r="D8" s="278"/>
       <c r="E8" s="342" t="s">
         <v>264</v>
@@ -32451,7 +32459,7 @@
       <c r="B9" s="285">
         <v>7</v>
       </c>
-      <c r="C9" s="396"/>
+      <c r="C9" s="397"/>
       <c r="D9" s="282"/>
       <c r="E9" s="288" t="s">
         <v>793</v>
@@ -32483,7 +32491,7 @@
       <c r="B10" s="285">
         <v>8</v>
       </c>
-      <c r="C10" s="397"/>
+      <c r="C10" s="398"/>
       <c r="D10" s="351"/>
       <c r="E10" s="288" t="s">
         <v>796</v>
@@ -32515,7 +32523,7 @@
       <c r="B11" s="285">
         <v>9</v>
       </c>
-      <c r="C11" s="397"/>
+      <c r="C11" s="398"/>
       <c r="D11" s="351"/>
       <c r="E11" s="288" t="s">
         <v>975</v>
@@ -32545,7 +32553,7 @@
       <c r="B12" s="285">
         <v>10</v>
       </c>
-      <c r="C12" s="397"/>
+      <c r="C12" s="398"/>
       <c r="D12" s="351"/>
       <c r="E12" s="288" t="s">
         <v>976</v>
@@ -32575,7 +32583,7 @@
       <c r="B13" s="285">
         <v>11</v>
       </c>
-      <c r="C13" s="397"/>
+      <c r="C13" s="398"/>
       <c r="D13" s="351"/>
       <c r="E13" s="359" t="s">
         <v>977</v>
@@ -32605,7 +32613,7 @@
       <c r="B14" s="285">
         <v>12</v>
       </c>
-      <c r="C14" s="397"/>
+      <c r="C14" s="398"/>
       <c r="D14" s="351"/>
       <c r="E14" s="359" t="s">
         <v>978</v>
@@ -32635,7 +32643,7 @@
       <c r="B15" s="285">
         <v>13</v>
       </c>
-      <c r="C15" s="397"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="351"/>
       <c r="E15" s="359"/>
       <c r="F15" s="352"/>
@@ -32655,7 +32663,7 @@
       <c r="B16" s="285">
         <v>14</v>
       </c>
-      <c r="C16" s="396"/>
+      <c r="C16" s="397"/>
       <c r="D16" s="278"/>
       <c r="E16" s="361"/>
       <c r="F16" s="279"/>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="988">
   <si>
     <t>No</t>
   </si>
@@ -8690,6 +8690,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>est</t>
+    </r>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aky</t>
     </r>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
@@ -14417,6 +14434,9 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="48" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="150" fillId="57" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14450,6 +14470,27 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="77" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="79" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14477,27 +14518,6 @@
     <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="77" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="79" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14527,9 +14547,6 @@
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="828">
@@ -15581,7 +15598,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15676,7 +15693,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15759,7 +15776,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15842,7 +15859,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15925,7 +15942,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16959,41 +16976,41 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="364">
+      <c r="A2" s="365">
         <v>1</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="367" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="368" t="s">
+      <c r="C2" s="369" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A3" s="365"/>
-      <c r="B3" s="367"/>
-      <c r="C3" s="369"/>
+      <c r="A3" s="366"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="370"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="364">
+      <c r="A4" s="365">
         <v>2</v>
       </c>
-      <c r="B4" s="366" t="s">
+      <c r="B4" s="367" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="368" t="s">
+      <c r="C4" s="369" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="370"/>
-      <c r="B5" s="371"/>
-      <c r="C5" s="372"/>
+      <c r="A5" s="371"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="373"/>
     </row>
     <row r="6" spans="1:3" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A6" s="365"/>
-      <c r="B6" s="367"/>
-      <c r="C6" s="369"/>
+      <c r="A6" s="366"/>
+      <c r="B6" s="368"/>
+      <c r="C6" s="370"/>
     </row>
     <row r="7" spans="1:3" ht="70.5" customHeight="1" thickBot="1">
       <c r="A7" s="17">
@@ -18109,7 +18126,7 @@
       <c r="B3" s="261">
         <v>1</v>
       </c>
-      <c r="C3" s="398" t="s">
+      <c r="C3" s="399" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="262"/>
@@ -18143,7 +18160,7 @@
       <c r="B4" s="261">
         <v>2</v>
       </c>
-      <c r="C4" s="398"/>
+      <c r="C4" s="399"/>
       <c r="D4" s="267"/>
       <c r="E4" s="268" t="s">
         <v>767</v>
@@ -18175,7 +18192,7 @@
       <c r="B5" s="261">
         <v>3</v>
       </c>
-      <c r="C5" s="398"/>
+      <c r="C5" s="399"/>
       <c r="D5" s="262"/>
       <c r="E5" s="263" t="s">
         <v>788</v>
@@ -18205,7 +18222,7 @@
       <c r="B6" s="261">
         <v>4</v>
       </c>
-      <c r="C6" s="398"/>
+      <c r="C6" s="399"/>
       <c r="D6" s="262"/>
       <c r="E6" s="263" t="s">
         <v>783</v>
@@ -18235,7 +18252,7 @@
       <c r="B7" s="261">
         <v>5</v>
       </c>
-      <c r="C7" s="398"/>
+      <c r="C7" s="399"/>
       <c r="D7" s="262"/>
       <c r="E7" s="263" t="s">
         <v>769</v>
@@ -18267,7 +18284,7 @@
       <c r="B8" s="261">
         <v>6</v>
       </c>
-      <c r="C8" s="398"/>
+      <c r="C8" s="399"/>
       <c r="D8" s="262"/>
       <c r="E8" s="263" t="s">
         <v>771</v>
@@ -18299,7 +18316,7 @@
       <c r="B9" s="261">
         <v>7</v>
       </c>
-      <c r="C9" s="398"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="262"/>
       <c r="E9" s="263" t="s">
         <v>773</v>
@@ -18331,7 +18348,7 @@
       <c r="B10" s="261">
         <v>8</v>
       </c>
-      <c r="C10" s="398"/>
+      <c r="C10" s="399"/>
       <c r="D10" s="262"/>
       <c r="E10" s="263" t="s">
         <v>785</v>
@@ -18361,7 +18378,7 @@
       <c r="B11" s="261">
         <v>9</v>
       </c>
-      <c r="C11" s="398"/>
+      <c r="C11" s="399"/>
       <c r="D11" s="262"/>
       <c r="E11" s="263" t="s">
         <v>786</v>
@@ -18391,7 +18408,7 @@
       <c r="B12" s="261">
         <v>10</v>
       </c>
-      <c r="C12" s="398"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="262"/>
       <c r="E12" s="263" t="s">
         <v>775</v>
@@ -18470,7 +18487,7 @@
       <c r="B15" s="261">
         <v>11</v>
       </c>
-      <c r="C15" s="398" t="s">
+      <c r="C15" s="399" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="262"/>
@@ -18504,7 +18521,7 @@
       <c r="B16" s="261">
         <v>12</v>
       </c>
-      <c r="C16" s="398"/>
+      <c r="C16" s="399"/>
       <c r="D16" s="262"/>
       <c r="E16" s="263" t="s">
         <v>787</v>
@@ -18536,7 +18553,7 @@
       <c r="B17" s="261">
         <v>13</v>
       </c>
-      <c r="C17" s="398"/>
+      <c r="C17" s="399"/>
       <c r="D17" s="262"/>
       <c r="E17" s="263" t="s">
         <v>780</v>
@@ -18566,7 +18583,7 @@
       <c r="B18" s="261">
         <v>14</v>
       </c>
-      <c r="C18" s="398"/>
+      <c r="C18" s="399"/>
       <c r="D18" s="262"/>
       <c r="E18" s="263" t="s">
         <v>781</v>
@@ -21720,7 +21737,7 @@
       <c r="B3" s="169">
         <v>1</v>
       </c>
-      <c r="C3" s="399" t="s">
+      <c r="C3" s="400" t="s">
         <v>669</v>
       </c>
       <c r="D3" s="167"/>
@@ -21747,7 +21764,7 @@
       <c r="B4" s="169">
         <v>2</v>
       </c>
-      <c r="C4" s="399"/>
+      <c r="C4" s="400"/>
       <c r="D4" s="167"/>
       <c r="E4" s="160" t="s">
         <v>163</v>
@@ -21774,7 +21791,7 @@
       <c r="B5" s="169">
         <v>3</v>
       </c>
-      <c r="C5" s="399"/>
+      <c r="C5" s="400"/>
       <c r="D5" s="167"/>
       <c r="E5" s="160" t="s">
         <v>164</v>
@@ -21797,7 +21814,7 @@
       <c r="B6" s="169">
         <v>4</v>
       </c>
-      <c r="C6" s="399"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="167"/>
       <c r="E6" s="161" t="s">
         <v>165</v>
@@ -21820,7 +21837,7 @@
       <c r="B7" s="169">
         <v>5</v>
       </c>
-      <c r="C7" s="399"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="167"/>
       <c r="E7" s="161" t="s">
         <v>166</v>
@@ -21897,7 +21914,7 @@
       <c r="B10" s="169">
         <v>8</v>
       </c>
-      <c r="C10" s="399" t="s">
+      <c r="C10" s="400" t="s">
         <v>672</v>
       </c>
       <c r="D10" s="167"/>
@@ -21924,7 +21941,7 @@
       <c r="B11" s="169">
         <v>9</v>
       </c>
-      <c r="C11" s="399"/>
+      <c r="C11" s="400"/>
       <c r="D11" s="167"/>
       <c r="E11" s="161" t="s">
         <v>171</v>
@@ -21947,7 +21964,7 @@
       <c r="B12" s="169">
         <v>10</v>
       </c>
-      <c r="C12" s="399"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="167"/>
       <c r="E12" s="161" t="s">
         <v>172</v>
@@ -21974,7 +21991,7 @@
       <c r="B13" s="169">
         <v>11</v>
       </c>
-      <c r="C13" s="399"/>
+      <c r="C13" s="400"/>
       <c r="D13" s="167"/>
       <c r="E13" s="161" t="s">
         <v>173</v>
@@ -21999,7 +22016,7 @@
       <c r="B14" s="169">
         <v>12</v>
       </c>
-      <c r="C14" s="399"/>
+      <c r="C14" s="400"/>
       <c r="D14" s="167"/>
       <c r="E14" s="161" t="s">
         <v>175</v>
@@ -22022,7 +22039,7 @@
       <c r="B15" s="169">
         <v>13</v>
       </c>
-      <c r="C15" s="399"/>
+      <c r="C15" s="400"/>
       <c r="D15" s="167"/>
       <c r="E15" s="161" t="s">
         <v>176</v>
@@ -22072,7 +22089,7 @@
       <c r="B17" s="169">
         <v>15</v>
       </c>
-      <c r="C17" s="399" t="s">
+      <c r="C17" s="400" t="s">
         <v>674</v>
       </c>
       <c r="D17" s="167"/>
@@ -22099,7 +22116,7 @@
       <c r="B18" s="169">
         <v>16</v>
       </c>
-      <c r="C18" s="399"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="167"/>
       <c r="E18" s="161" t="s">
         <v>181</v>
@@ -22124,7 +22141,7 @@
       <c r="B19" s="169">
         <v>17</v>
       </c>
-      <c r="C19" s="399" t="s">
+      <c r="C19" s="400" t="s">
         <v>675</v>
       </c>
       <c r="D19" s="167"/>
@@ -22151,7 +22168,7 @@
       <c r="B20" s="169">
         <v>18</v>
       </c>
-      <c r="C20" s="399"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="167"/>
       <c r="E20" s="160" t="s">
         <v>185</v>
@@ -22176,7 +22193,7 @@
       <c r="B21" s="169">
         <v>19</v>
       </c>
-      <c r="C21" s="399"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="167"/>
       <c r="E21" s="161" t="s">
         <v>186</v>
@@ -22201,7 +22218,7 @@
       <c r="B22" s="169">
         <v>20</v>
       </c>
-      <c r="C22" s="399"/>
+      <c r="C22" s="400"/>
       <c r="D22" s="167"/>
       <c r="E22" s="161" t="s">
         <v>188</v>
@@ -22226,7 +22243,7 @@
       <c r="B23" s="169">
         <v>21</v>
       </c>
-      <c r="C23" s="399"/>
+      <c r="C23" s="400"/>
       <c r="D23" s="167"/>
       <c r="E23" s="161" t="s">
         <v>189</v>
@@ -22249,7 +22266,7 @@
       <c r="B24" s="169">
         <v>22</v>
       </c>
-      <c r="C24" s="399" t="s">
+      <c r="C24" s="400" t="s">
         <v>676</v>
       </c>
       <c r="D24" s="167"/>
@@ -22280,7 +22297,7 @@
       <c r="B25" s="169">
         <v>23</v>
       </c>
-      <c r="C25" s="399"/>
+      <c r="C25" s="400"/>
       <c r="D25" s="167"/>
       <c r="E25" s="161" t="s">
         <v>191</v>
@@ -22309,7 +22326,7 @@
       <c r="B26" s="169">
         <v>24</v>
       </c>
-      <c r="C26" s="399" t="s">
+      <c r="C26" s="400" t="s">
         <v>677</v>
       </c>
       <c r="D26" s="167"/>
@@ -22338,7 +22355,7 @@
       <c r="B27" s="169">
         <v>25</v>
       </c>
-      <c r="C27" s="399"/>
+      <c r="C27" s="400"/>
       <c r="D27" s="167"/>
       <c r="E27" s="161" t="s">
         <v>194</v>
@@ -22365,7 +22382,7 @@
       <c r="B28" s="169">
         <v>26</v>
       </c>
-      <c r="C28" s="399"/>
+      <c r="C28" s="400"/>
       <c r="D28" s="167"/>
       <c r="E28" s="161" t="s">
         <v>195</v>
@@ -22392,7 +22409,7 @@
       <c r="B29" s="169">
         <v>27</v>
       </c>
-      <c r="C29" s="399"/>
+      <c r="C29" s="400"/>
       <c r="D29" s="167"/>
       <c r="E29" s="161" t="s">
         <v>196</v>
@@ -22419,7 +22436,7 @@
       <c r="B30" s="169">
         <v>28</v>
       </c>
-      <c r="C30" s="399"/>
+      <c r="C30" s="400"/>
       <c r="D30" s="167"/>
       <c r="E30" s="161" t="s">
         <v>197</v>
@@ -22446,7 +22463,7 @@
       <c r="B31" s="169">
         <v>29</v>
       </c>
-      <c r="C31" s="399"/>
+      <c r="C31" s="400"/>
       <c r="D31" s="167"/>
       <c r="E31" s="161" t="s">
         <v>198</v>
@@ -22473,7 +22490,7 @@
       <c r="B32" s="169">
         <v>30</v>
       </c>
-      <c r="C32" s="399"/>
+      <c r="C32" s="400"/>
       <c r="D32" s="167"/>
       <c r="E32" s="161" t="s">
         <v>199</v>
@@ -22500,7 +22517,7 @@
       <c r="B33" s="169">
         <v>31</v>
       </c>
-      <c r="C33" s="399"/>
+      <c r="C33" s="400"/>
       <c r="D33" s="167"/>
       <c r="E33" s="161" t="s">
         <v>200</v>
@@ -22527,7 +22544,7 @@
       <c r="B34" s="169">
         <v>32</v>
       </c>
-      <c r="C34" s="399"/>
+      <c r="C34" s="400"/>
       <c r="D34" s="167"/>
       <c r="E34" s="161" t="s">
         <v>201</v>
@@ -22554,7 +22571,7 @@
       <c r="B35" s="169">
         <v>33</v>
       </c>
-      <c r="C35" s="399"/>
+      <c r="C35" s="400"/>
       <c r="D35" s="167"/>
       <c r="E35" s="161" t="s">
         <v>202</v>
@@ -22581,7 +22598,7 @@
       <c r="B36" s="169">
         <v>34</v>
       </c>
-      <c r="C36" s="399"/>
+      <c r="C36" s="400"/>
       <c r="D36" s="167"/>
       <c r="E36" s="161" t="s">
         <v>203</v>
@@ -22608,7 +22625,7 @@
       <c r="B37" s="169">
         <v>35</v>
       </c>
-      <c r="C37" s="399" t="s">
+      <c r="C37" s="400" t="s">
         <v>678</v>
       </c>
       <c r="D37" s="167"/>
@@ -22635,7 +22652,7 @@
       <c r="B38" s="169">
         <v>36</v>
       </c>
-      <c r="C38" s="399"/>
+      <c r="C38" s="400"/>
       <c r="D38" s="167"/>
       <c r="E38" s="172" t="s">
         <v>206</v>
@@ -22660,7 +22677,7 @@
       <c r="B39" s="169">
         <v>37</v>
       </c>
-      <c r="C39" s="399"/>
+      <c r="C39" s="400"/>
       <c r="D39" s="167"/>
       <c r="E39" s="172" t="s">
         <v>208</v>
@@ -22685,7 +22702,7 @@
       <c r="B40" s="169">
         <v>38</v>
       </c>
-      <c r="C40" s="399"/>
+      <c r="C40" s="400"/>
       <c r="D40" s="167"/>
       <c r="E40" s="172" t="s">
         <v>209</v>
@@ -22710,7 +22727,7 @@
       <c r="B41" s="169">
         <v>39</v>
       </c>
-      <c r="C41" s="399"/>
+      <c r="C41" s="400"/>
       <c r="D41" s="167"/>
       <c r="E41" s="172" t="s">
         <v>210</v>
@@ -22735,7 +22752,7 @@
       <c r="B42" s="169">
         <v>40</v>
       </c>
-      <c r="C42" s="399"/>
+      <c r="C42" s="400"/>
       <c r="D42" s="167"/>
       <c r="E42" s="172" t="s">
         <v>212</v>
@@ -22762,7 +22779,7 @@
       <c r="B43" s="169">
         <v>41</v>
       </c>
-      <c r="C43" s="399"/>
+      <c r="C43" s="400"/>
       <c r="D43" s="167"/>
       <c r="E43" s="172" t="s">
         <v>215</v>
@@ -23365,47 +23382,47 @@
       <c r="N36" s="174"/>
     </row>
     <row r="37" spans="2:14" ht="13.5">
-      <c r="B37" s="400" t="s">
+      <c r="B37" s="401" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="400"/>
-      <c r="D37" s="400"/>
-      <c r="E37" s="400"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="400"/>
+      <c r="C37" s="401"/>
+      <c r="D37" s="401"/>
+      <c r="E37" s="401"/>
+      <c r="F37" s="401"/>
+      <c r="G37" s="401"/>
       <c r="N37" s="175"/>
     </row>
     <row r="38" spans="2:14" ht="13.5">
-      <c r="B38" s="400" t="s">
+      <c r="B38" s="401" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="400"/>
-      <c r="D38" s="400"/>
-      <c r="E38" s="400"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="400"/>
+      <c r="C38" s="401"/>
+      <c r="D38" s="401"/>
+      <c r="E38" s="401"/>
+      <c r="F38" s="401"/>
+      <c r="G38" s="401"/>
       <c r="N38" s="175"/>
     </row>
     <row r="39" spans="2:14" ht="13.5">
-      <c r="B39" s="400" t="s">
+      <c r="B39" s="401" t="s">
         <v>542</v>
       </c>
-      <c r="C39" s="400"/>
-      <c r="D39" s="400"/>
-      <c r="E39" s="400"/>
-      <c r="F39" s="400"/>
-      <c r="G39" s="400"/>
+      <c r="C39" s="401"/>
+      <c r="D39" s="401"/>
+      <c r="E39" s="401"/>
+      <c r="F39" s="401"/>
+      <c r="G39" s="401"/>
       <c r="N39" s="175"/>
     </row>
     <row r="40" spans="2:14" ht="13.5">
-      <c r="B40" s="400" t="s">
+      <c r="B40" s="401" t="s">
         <v>543</v>
       </c>
-      <c r="C40" s="400"/>
-      <c r="D40" s="400"/>
-      <c r="E40" s="400"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="400"/>
+      <c r="C40" s="401"/>
+      <c r="D40" s="401"/>
+      <c r="E40" s="401"/>
+      <c r="F40" s="401"/>
+      <c r="G40" s="401"/>
       <c r="N40" s="175"/>
     </row>
     <row r="41" spans="2:14" ht="13.5">
@@ -23459,12 +23476,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="383" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="377"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23588,151 +23605,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="378" t="s">
+      <c r="A2" s="386" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="382" t="s">
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="390" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="384" t="s">
+      <c r="E2" s="377" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="384"/>
-      <c r="I2" s="384"/>
-      <c r="J2" s="384"/>
-      <c r="K2" s="384"/>
-      <c r="L2" s="384"/>
-      <c r="M2" s="384"/>
-      <c r="N2" s="384"/>
-      <c r="O2" s="384"/>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="384"/>
-      <c r="R2" s="384"/>
-      <c r="S2" s="384"/>
-      <c r="T2" s="384"/>
-      <c r="U2" s="384"/>
-      <c r="V2" s="384"/>
-      <c r="W2" s="384"/>
-      <c r="X2" s="384"/>
-      <c r="Y2" s="384"/>
-      <c r="Z2" s="384"/>
-      <c r="AA2" s="384"/>
-      <c r="AB2" s="384"/>
-      <c r="AC2" s="384"/>
-      <c r="AD2" s="384"/>
-      <c r="AE2" s="384"/>
-      <c r="AF2" s="384"/>
-      <c r="AG2" s="385" t="s">
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="377"/>
+      <c r="U2" s="377"/>
+      <c r="V2" s="377"/>
+      <c r="W2" s="377"/>
+      <c r="X2" s="377"/>
+      <c r="Y2" s="377"/>
+      <c r="Z2" s="377"/>
+      <c r="AA2" s="377"/>
+      <c r="AB2" s="377"/>
+      <c r="AC2" s="377"/>
+      <c r="AD2" s="377"/>
+      <c r="AE2" s="377"/>
+      <c r="AF2" s="377"/>
+      <c r="AG2" s="376" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="384"/>
-      <c r="AI2" s="384"/>
-      <c r="AJ2" s="384"/>
-      <c r="AK2" s="384"/>
-      <c r="AL2" s="384"/>
-      <c r="AM2" s="384"/>
-      <c r="AN2" s="384"/>
-      <c r="AO2" s="384"/>
-      <c r="AP2" s="384"/>
-      <c r="AQ2" s="384"/>
-      <c r="AR2" s="384"/>
-      <c r="AS2" s="384"/>
-      <c r="AT2" s="384"/>
-      <c r="AU2" s="384"/>
-      <c r="AV2" s="384"/>
-      <c r="AW2" s="384"/>
-      <c r="AX2" s="384"/>
-      <c r="AY2" s="384"/>
-      <c r="AZ2" s="384"/>
-      <c r="BA2" s="384"/>
-      <c r="BB2" s="384"/>
-      <c r="BC2" s="384"/>
-      <c r="BD2" s="384"/>
-      <c r="BE2" s="384"/>
-      <c r="BF2" s="384"/>
-      <c r="BG2" s="384"/>
-      <c r="BH2" s="384"/>
-      <c r="BI2" s="384"/>
-      <c r="BJ2" s="384"/>
-      <c r="BK2" s="386"/>
-      <c r="BL2" s="385" t="s">
+      <c r="AH2" s="377"/>
+      <c r="AI2" s="377"/>
+      <c r="AJ2" s="377"/>
+      <c r="AK2" s="377"/>
+      <c r="AL2" s="377"/>
+      <c r="AM2" s="377"/>
+      <c r="AN2" s="377"/>
+      <c r="AO2" s="377"/>
+      <c r="AP2" s="377"/>
+      <c r="AQ2" s="377"/>
+      <c r="AR2" s="377"/>
+      <c r="AS2" s="377"/>
+      <c r="AT2" s="377"/>
+      <c r="AU2" s="377"/>
+      <c r="AV2" s="377"/>
+      <c r="AW2" s="377"/>
+      <c r="AX2" s="377"/>
+      <c r="AY2" s="377"/>
+      <c r="AZ2" s="377"/>
+      <c r="BA2" s="377"/>
+      <c r="BB2" s="377"/>
+      <c r="BC2" s="377"/>
+      <c r="BD2" s="377"/>
+      <c r="BE2" s="377"/>
+      <c r="BF2" s="377"/>
+      <c r="BG2" s="377"/>
+      <c r="BH2" s="377"/>
+      <c r="BI2" s="377"/>
+      <c r="BJ2" s="377"/>
+      <c r="BK2" s="378"/>
+      <c r="BL2" s="376" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="384"/>
-      <c r="BN2" s="384"/>
-      <c r="BO2" s="384"/>
-      <c r="BP2" s="384"/>
-      <c r="BQ2" s="384"/>
-      <c r="BR2" s="384"/>
-      <c r="BS2" s="384"/>
-      <c r="BT2" s="384"/>
-      <c r="BU2" s="384"/>
-      <c r="BV2" s="384"/>
-      <c r="BW2" s="384"/>
-      <c r="BX2" s="384"/>
-      <c r="BY2" s="384"/>
-      <c r="BZ2" s="384"/>
-      <c r="CA2" s="384"/>
-      <c r="CB2" s="384"/>
-      <c r="CC2" s="384"/>
-      <c r="CD2" s="384"/>
-      <c r="CE2" s="384"/>
-      <c r="CF2" s="384"/>
-      <c r="CG2" s="384"/>
-      <c r="CH2" s="384"/>
-      <c r="CI2" s="384"/>
-      <c r="CJ2" s="384"/>
-      <c r="CK2" s="384"/>
-      <c r="CL2" s="384"/>
-      <c r="CM2" s="384"/>
-      <c r="CN2" s="384"/>
-      <c r="CO2" s="384"/>
-      <c r="CP2" s="385" t="s">
+      <c r="BM2" s="377"/>
+      <c r="BN2" s="377"/>
+      <c r="BO2" s="377"/>
+      <c r="BP2" s="377"/>
+      <c r="BQ2" s="377"/>
+      <c r="BR2" s="377"/>
+      <c r="BS2" s="377"/>
+      <c r="BT2" s="377"/>
+      <c r="BU2" s="377"/>
+      <c r="BV2" s="377"/>
+      <c r="BW2" s="377"/>
+      <c r="BX2" s="377"/>
+      <c r="BY2" s="377"/>
+      <c r="BZ2" s="377"/>
+      <c r="CA2" s="377"/>
+      <c r="CB2" s="377"/>
+      <c r="CC2" s="377"/>
+      <c r="CD2" s="377"/>
+      <c r="CE2" s="377"/>
+      <c r="CF2" s="377"/>
+      <c r="CG2" s="377"/>
+      <c r="CH2" s="377"/>
+      <c r="CI2" s="377"/>
+      <c r="CJ2" s="377"/>
+      <c r="CK2" s="377"/>
+      <c r="CL2" s="377"/>
+      <c r="CM2" s="377"/>
+      <c r="CN2" s="377"/>
+      <c r="CO2" s="377"/>
+      <c r="CP2" s="376" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="384"/>
-      <c r="CR2" s="384"/>
-      <c r="CS2" s="384"/>
-      <c r="CT2" s="384"/>
-      <c r="CU2" s="384"/>
-      <c r="CV2" s="384"/>
-      <c r="CW2" s="384"/>
-      <c r="CX2" s="384"/>
-      <c r="CY2" s="384"/>
-      <c r="CZ2" s="384"/>
-      <c r="DA2" s="384"/>
-      <c r="DB2" s="384"/>
-      <c r="DC2" s="384"/>
-      <c r="DD2" s="384"/>
-      <c r="DE2" s="384"/>
-      <c r="DF2" s="384"/>
-      <c r="DG2" s="384"/>
-      <c r="DH2" s="384"/>
-      <c r="DI2" s="384"/>
-      <c r="DJ2" s="384"/>
-      <c r="DK2" s="384"/>
-      <c r="DL2" s="384"/>
-      <c r="DM2" s="384"/>
-      <c r="DN2" s="384"/>
-      <c r="DO2" s="384"/>
-      <c r="DP2" s="384"/>
-      <c r="DQ2" s="384"/>
-      <c r="DR2" s="384"/>
-      <c r="DS2" s="384"/>
-      <c r="DT2" s="386"/>
-      <c r="DU2" s="387" t="s">
+      <c r="CQ2" s="377"/>
+      <c r="CR2" s="377"/>
+      <c r="CS2" s="377"/>
+      <c r="CT2" s="377"/>
+      <c r="CU2" s="377"/>
+      <c r="CV2" s="377"/>
+      <c r="CW2" s="377"/>
+      <c r="CX2" s="377"/>
+      <c r="CY2" s="377"/>
+      <c r="CZ2" s="377"/>
+      <c r="DA2" s="377"/>
+      <c r="DB2" s="377"/>
+      <c r="DC2" s="377"/>
+      <c r="DD2" s="377"/>
+      <c r="DE2" s="377"/>
+      <c r="DF2" s="377"/>
+      <c r="DG2" s="377"/>
+      <c r="DH2" s="377"/>
+      <c r="DI2" s="377"/>
+      <c r="DJ2" s="377"/>
+      <c r="DK2" s="377"/>
+      <c r="DL2" s="377"/>
+      <c r="DM2" s="377"/>
+      <c r="DN2" s="377"/>
+      <c r="DO2" s="377"/>
+      <c r="DP2" s="377"/>
+      <c r="DQ2" s="377"/>
+      <c r="DR2" s="377"/>
+      <c r="DS2" s="377"/>
+      <c r="DT2" s="378"/>
+      <c r="DU2" s="379" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="380"/>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="383"/>
+      <c r="A3" s="388"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="391"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24093,14 +24110,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="388"/>
+      <c r="DU3" s="380"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="389" t="s">
+      <c r="B4" s="381" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="390"/>
+      <c r="C4" s="382"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -24359,10 +24376,10 @@
     </row>
     <row r="6" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="93"/>
-      <c r="B6" s="373" t="s">
+      <c r="B6" s="374" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="374"/>
+      <c r="C6" s="375"/>
       <c r="D6" s="94"/>
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
@@ -24621,10 +24638,10 @@
     </row>
     <row r="8" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="93"/>
-      <c r="B8" s="373" t="s">
+      <c r="B8" s="374" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="374"/>
+      <c r="C8" s="375"/>
       <c r="D8" s="94"/>
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
@@ -25016,10 +25033,10 @@
     </row>
     <row r="11" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="93"/>
-      <c r="B11" s="373" t="s">
+      <c r="B11" s="374" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="374"/>
+      <c r="C11" s="375"/>
       <c r="D11" s="94"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
@@ -25278,10 +25295,10 @@
     </row>
     <row r="13" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="93"/>
-      <c r="B13" s="373" t="s">
+      <c r="B13" s="374" t="s">
         <v>440</v>
       </c>
-      <c r="C13" s="374"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="94"/>
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
@@ -25540,10 +25557,10 @@
     </row>
     <row r="15" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="93"/>
-      <c r="B15" s="373" t="s">
+      <c r="B15" s="374" t="s">
         <v>443</v>
       </c>
-      <c r="C15" s="374"/>
+      <c r="C15" s="375"/>
       <c r="D15" s="94"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
@@ -25802,10 +25819,10 @@
     </row>
     <row r="17" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="93"/>
-      <c r="B17" s="373" t="s">
+      <c r="B17" s="374" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="375"/>
       <c r="D17" s="94"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
@@ -26064,10 +26081,10 @@
     </row>
     <row r="19" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="93"/>
-      <c r="B19" s="373" t="s">
+      <c r="B19" s="374" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="374"/>
+      <c r="C19" s="375"/>
       <c r="D19" s="94"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
@@ -26320,10 +26337,10 @@
     </row>
     <row r="21" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="93"/>
-      <c r="B21" s="373" t="s">
+      <c r="B21" s="374" t="s">
         <v>448</v>
       </c>
-      <c r="C21" s="374"/>
+      <c r="C21" s="375"/>
       <c r="D21" s="94"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
@@ -26576,10 +26593,10 @@
     </row>
     <row r="23" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="93"/>
-      <c r="B23" s="373" t="s">
+      <c r="B23" s="374" t="s">
         <v>449</v>
       </c>
-      <c r="C23" s="374"/>
+      <c r="C23" s="375"/>
       <c r="D23" s="94"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
@@ -26832,10 +26849,10 @@
     </row>
     <row r="25" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="93"/>
-      <c r="B25" s="373" t="s">
+      <c r="B25" s="374" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="374"/>
+      <c r="C25" s="375"/>
       <c r="D25" s="94"/>
       <c r="E25" s="78"/>
       <c r="F25" s="78"/>
@@ -27089,6 +27106,18 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="CP2:DT2"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AG2:BK2"/>
+    <mergeCell ref="BL2:CO2"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
@@ -27096,18 +27125,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="CP2:DT2"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AG2:BK2"/>
-    <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27650,22 +27667,28 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="364" t="s">
         <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="364" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28976,17 +28999,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.75" hidden="1" customHeight="1"/>
     <row r="2" spans="2:10" hidden="1">
-      <c r="B2" s="393" t="s">
+      <c r="B2" s="394" t="s">
         <v>849</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
     </row>
     <row r="3" spans="2:10" ht="54" hidden="1">
       <c r="B3" s="42" t="s">
@@ -29021,7 +29044,7 @@
       <c r="B4" s="186">
         <v>1</v>
       </c>
-      <c r="C4" s="391" t="s">
+      <c r="C4" s="392" t="s">
         <v>857</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -29050,7 +29073,7 @@
       <c r="B5" s="186">
         <v>2</v>
       </c>
-      <c r="C5" s="392"/>
+      <c r="C5" s="393"/>
       <c r="D5" s="37" t="s">
         <v>859</v>
       </c>
@@ -29077,7 +29100,7 @@
       <c r="B6" s="186">
         <v>3</v>
       </c>
-      <c r="C6" s="392"/>
+      <c r="C6" s="393"/>
       <c r="D6" s="37" t="s">
         <v>860</v>
       </c>
@@ -29104,7 +29127,7 @@
       <c r="B7" s="186">
         <v>4</v>
       </c>
-      <c r="C7" s="391" t="s">
+      <c r="C7" s="392" t="s">
         <v>844</v>
       </c>
       <c r="D7" s="45" t="s">
@@ -29120,10 +29143,10 @@
         <v>81</v>
       </c>
       <c r="H7" s="185"/>
-      <c r="I7" s="391" t="s">
+      <c r="I7" s="392" t="s">
         <v>328</v>
       </c>
-      <c r="J7" s="394">
+      <c r="J7" s="395">
         <v>43242</v>
       </c>
     </row>
@@ -29131,7 +29154,7 @@
       <c r="B8" s="186">
         <v>5</v>
       </c>
-      <c r="C8" s="392"/>
+      <c r="C8" s="393"/>
       <c r="D8" s="45" t="s">
         <v>862</v>
       </c>
@@ -29145,14 +29168,14 @@
         <v>82</v>
       </c>
       <c r="H8" s="185"/>
-      <c r="I8" s="391"/>
-      <c r="J8" s="394"/>
+      <c r="I8" s="392"/>
+      <c r="J8" s="395"/>
     </row>
     <row r="9" spans="2:10" ht="81.75" hidden="1" customHeight="1">
       <c r="B9" s="186">
         <v>6</v>
       </c>
-      <c r="C9" s="392"/>
+      <c r="C9" s="393"/>
       <c r="D9" s="45" t="s">
         <v>847</v>
       </c>
@@ -29293,7 +29316,7 @@
       <c r="B14" s="186">
         <v>11</v>
       </c>
-      <c r="C14" s="391" t="s">
+      <c r="C14" s="392" t="s">
         <v>866</v>
       </c>
       <c r="D14" s="45" t="s">
@@ -29322,7 +29345,7 @@
       <c r="B15" s="186">
         <v>12</v>
       </c>
-      <c r="C15" s="392"/>
+      <c r="C15" s="393"/>
       <c r="D15" s="37" t="s">
         <v>845</v>
       </c>
@@ -29346,17 +29369,17 @@
       </c>
     </row>
     <row r="16" spans="2:10" hidden="1">
-      <c r="B16" s="393" t="s">
+      <c r="B16" s="394" t="s">
         <v>868</v>
       </c>
-      <c r="C16" s="393"/>
-      <c r="D16" s="393"/>
-      <c r="E16" s="393"/>
-      <c r="F16" s="393"/>
-      <c r="G16" s="393"/>
-      <c r="H16" s="393"/>
-      <c r="I16" s="393"/>
-      <c r="J16" s="393"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="394"/>
+      <c r="G16" s="394"/>
+      <c r="H16" s="394"/>
+      <c r="I16" s="394"/>
+      <c r="J16" s="394"/>
     </row>
     <row r="17" spans="2:10" ht="54" hidden="1">
       <c r="B17" s="42" t="s">
@@ -29391,7 +29414,7 @@
       <c r="B18" s="186">
         <v>1</v>
       </c>
-      <c r="C18" s="391" t="s">
+      <c r="C18" s="392" t="s">
         <v>871</v>
       </c>
       <c r="D18" s="37" t="s">
@@ -29420,7 +29443,7 @@
       <c r="B19" s="186">
         <v>2</v>
       </c>
-      <c r="C19" s="392"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="37" t="s">
         <v>872</v>
       </c>
@@ -29447,7 +29470,7 @@
       <c r="B20" s="186">
         <v>3</v>
       </c>
-      <c r="C20" s="392"/>
+      <c r="C20" s="393"/>
       <c r="D20" s="37" t="s">
         <v>874</v>
       </c>
@@ -29474,7 +29497,7 @@
       <c r="B21" s="186">
         <v>4</v>
       </c>
-      <c r="C21" s="392"/>
+      <c r="C21" s="393"/>
       <c r="D21" s="37" t="s">
         <v>314</v>
       </c>
@@ -29495,7 +29518,7 @@
       <c r="B22" s="186">
         <v>5</v>
       </c>
-      <c r="C22" s="392"/>
+      <c r="C22" s="393"/>
       <c r="D22" s="37" t="s">
         <v>875</v>
       </c>
@@ -29522,7 +29545,7 @@
       <c r="B23" s="186">
         <v>6</v>
       </c>
-      <c r="C23" s="392"/>
+      <c r="C23" s="393"/>
       <c r="D23" s="37" t="s">
         <v>841</v>
       </c>
@@ -29569,7 +29592,7 @@
       <c r="B25" s="186">
         <v>8</v>
       </c>
-      <c r="C25" s="391" t="s">
+      <c r="C25" s="392" t="s">
         <v>877</v>
       </c>
       <c r="D25" s="37" t="s">
@@ -29598,7 +29621,7 @@
       <c r="B26" s="186">
         <v>9</v>
       </c>
-      <c r="C26" s="392"/>
+      <c r="C26" s="393"/>
       <c r="D26" s="37" t="s">
         <v>842</v>
       </c>
@@ -29625,7 +29648,7 @@
       <c r="B27" s="186">
         <v>10</v>
       </c>
-      <c r="C27" s="392"/>
+      <c r="C27" s="393"/>
       <c r="D27" s="37" t="s">
         <v>878</v>
       </c>
@@ -29646,7 +29669,7 @@
       <c r="B28" s="186">
         <v>11</v>
       </c>
-      <c r="C28" s="392"/>
+      <c r="C28" s="393"/>
       <c r="D28" s="37" t="s">
         <v>298</v>
       </c>
@@ -32259,7 +32282,7 @@
       <c r="B3" s="285">
         <v>1</v>
       </c>
-      <c r="C3" s="395" t="s">
+      <c r="C3" s="396" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="278"/>
@@ -32291,7 +32314,7 @@
       <c r="B4" s="285">
         <v>2</v>
       </c>
-      <c r="C4" s="396"/>
+      <c r="C4" s="397"/>
       <c r="D4" s="282"/>
       <c r="E4" s="347" t="s">
         <v>791</v>
@@ -32323,7 +32346,7 @@
       <c r="B5" s="285">
         <v>3</v>
       </c>
-      <c r="C5" s="397"/>
+      <c r="C5" s="398"/>
       <c r="D5" s="351"/>
       <c r="E5" s="286" t="s">
         <v>790</v>
@@ -32353,7 +32376,7 @@
       <c r="B6" s="285">
         <v>4</v>
       </c>
-      <c r="C6" s="396"/>
+      <c r="C6" s="397"/>
       <c r="D6" s="278"/>
       <c r="E6" s="363" t="s">
         <v>967</v>
@@ -32385,7 +32408,7 @@
       <c r="B7" s="285">
         <v>5</v>
       </c>
-      <c r="C7" s="395" t="s">
+      <c r="C7" s="396" t="s">
         <v>246</v>
       </c>
       <c r="D7" s="282"/>
@@ -32419,7 +32442,7 @@
       <c r="B8" s="285">
         <v>6</v>
       </c>
-      <c r="C8" s="396"/>
+      <c r="C8" s="397"/>
       <c r="D8" s="278"/>
       <c r="E8" s="342" t="s">
         <v>264</v>
@@ -32451,7 +32474,7 @@
       <c r="B9" s="285">
         <v>7</v>
       </c>
-      <c r="C9" s="396"/>
+      <c r="C9" s="397"/>
       <c r="D9" s="282"/>
       <c r="E9" s="288" t="s">
         <v>793</v>
@@ -32483,7 +32506,7 @@
       <c r="B10" s="285">
         <v>8</v>
       </c>
-      <c r="C10" s="397"/>
+      <c r="C10" s="398"/>
       <c r="D10" s="351"/>
       <c r="E10" s="288" t="s">
         <v>796</v>
@@ -32515,7 +32538,7 @@
       <c r="B11" s="285">
         <v>9</v>
       </c>
-      <c r="C11" s="397"/>
+      <c r="C11" s="398"/>
       <c r="D11" s="351"/>
       <c r="E11" s="288" t="s">
         <v>975</v>
@@ -32545,7 +32568,7 @@
       <c r="B12" s="285">
         <v>10</v>
       </c>
-      <c r="C12" s="397"/>
+      <c r="C12" s="398"/>
       <c r="D12" s="351"/>
       <c r="E12" s="288" t="s">
         <v>976</v>
@@ -32575,7 +32598,7 @@
       <c r="B13" s="285">
         <v>11</v>
       </c>
-      <c r="C13" s="397"/>
+      <c r="C13" s="398"/>
       <c r="D13" s="351"/>
       <c r="E13" s="359" t="s">
         <v>977</v>
@@ -32605,7 +32628,7 @@
       <c r="B14" s="285">
         <v>12</v>
       </c>
-      <c r="C14" s="397"/>
+      <c r="C14" s="398"/>
       <c r="D14" s="351"/>
       <c r="E14" s="359" t="s">
         <v>978</v>
@@ -32635,7 +32658,7 @@
       <c r="B15" s="285">
         <v>13</v>
       </c>
-      <c r="C15" s="397"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="351"/>
       <c r="E15" s="359"/>
       <c r="F15" s="352"/>
@@ -32655,7 +32678,7 @@
       <c r="B16" s="285">
         <v>14</v>
       </c>
-      <c r="C16" s="396"/>
+      <c r="C16" s="397"/>
       <c r="D16" s="278"/>
       <c r="E16" s="361"/>
       <c r="F16" s="279"/>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="988">
   <si>
     <t>No</t>
   </si>
@@ -8690,6 +8690,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>est</t>
+    </r>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est 2019.06.13.01</t>
     </r>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
@@ -14453,12 +14470,39 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14473,33 +14517,6 @@
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15581,7 +15598,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15676,7 +15693,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15759,7 +15776,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15842,7 +15859,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15925,7 +15942,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23459,12 +23476,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="376" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="378"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23588,151 +23605,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="390" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="377" t="s">
+      <c r="E2" s="385" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
-      <c r="S2" s="377"/>
-      <c r="T2" s="377"/>
-      <c r="U2" s="377"/>
-      <c r="V2" s="377"/>
-      <c r="W2" s="377"/>
-      <c r="X2" s="377"/>
-      <c r="Y2" s="377"/>
-      <c r="Z2" s="377"/>
-      <c r="AA2" s="377"/>
-      <c r="AB2" s="377"/>
-      <c r="AC2" s="377"/>
-      <c r="AD2" s="377"/>
-      <c r="AE2" s="377"/>
-      <c r="AF2" s="377"/>
-      <c r="AG2" s="376" t="s">
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="385"/>
+      <c r="P2" s="385"/>
+      <c r="Q2" s="385"/>
+      <c r="R2" s="385"/>
+      <c r="S2" s="385"/>
+      <c r="T2" s="385"/>
+      <c r="U2" s="385"/>
+      <c r="V2" s="385"/>
+      <c r="W2" s="385"/>
+      <c r="X2" s="385"/>
+      <c r="Y2" s="385"/>
+      <c r="Z2" s="385"/>
+      <c r="AA2" s="385"/>
+      <c r="AB2" s="385"/>
+      <c r="AC2" s="385"/>
+      <c r="AD2" s="385"/>
+      <c r="AE2" s="385"/>
+      <c r="AF2" s="385"/>
+      <c r="AG2" s="386" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="377"/>
-      <c r="AI2" s="377"/>
-      <c r="AJ2" s="377"/>
-      <c r="AK2" s="377"/>
-      <c r="AL2" s="377"/>
-      <c r="AM2" s="377"/>
-      <c r="AN2" s="377"/>
-      <c r="AO2" s="377"/>
-      <c r="AP2" s="377"/>
-      <c r="AQ2" s="377"/>
-      <c r="AR2" s="377"/>
-      <c r="AS2" s="377"/>
-      <c r="AT2" s="377"/>
-      <c r="AU2" s="377"/>
-      <c r="AV2" s="377"/>
-      <c r="AW2" s="377"/>
-      <c r="AX2" s="377"/>
-      <c r="AY2" s="377"/>
-      <c r="AZ2" s="377"/>
-      <c r="BA2" s="377"/>
-      <c r="BB2" s="377"/>
-      <c r="BC2" s="377"/>
-      <c r="BD2" s="377"/>
-      <c r="BE2" s="377"/>
-      <c r="BF2" s="377"/>
-      <c r="BG2" s="377"/>
-      <c r="BH2" s="377"/>
-      <c r="BI2" s="377"/>
-      <c r="BJ2" s="377"/>
-      <c r="BK2" s="378"/>
-      <c r="BL2" s="376" t="s">
+      <c r="AH2" s="385"/>
+      <c r="AI2" s="385"/>
+      <c r="AJ2" s="385"/>
+      <c r="AK2" s="385"/>
+      <c r="AL2" s="385"/>
+      <c r="AM2" s="385"/>
+      <c r="AN2" s="385"/>
+      <c r="AO2" s="385"/>
+      <c r="AP2" s="385"/>
+      <c r="AQ2" s="385"/>
+      <c r="AR2" s="385"/>
+      <c r="AS2" s="385"/>
+      <c r="AT2" s="385"/>
+      <c r="AU2" s="385"/>
+      <c r="AV2" s="385"/>
+      <c r="AW2" s="385"/>
+      <c r="AX2" s="385"/>
+      <c r="AY2" s="385"/>
+      <c r="AZ2" s="385"/>
+      <c r="BA2" s="385"/>
+      <c r="BB2" s="385"/>
+      <c r="BC2" s="385"/>
+      <c r="BD2" s="385"/>
+      <c r="BE2" s="385"/>
+      <c r="BF2" s="385"/>
+      <c r="BG2" s="385"/>
+      <c r="BH2" s="385"/>
+      <c r="BI2" s="385"/>
+      <c r="BJ2" s="385"/>
+      <c r="BK2" s="387"/>
+      <c r="BL2" s="386" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="377"/>
-      <c r="BN2" s="377"/>
-      <c r="BO2" s="377"/>
-      <c r="BP2" s="377"/>
-      <c r="BQ2" s="377"/>
-      <c r="BR2" s="377"/>
-      <c r="BS2" s="377"/>
-      <c r="BT2" s="377"/>
-      <c r="BU2" s="377"/>
-      <c r="BV2" s="377"/>
-      <c r="BW2" s="377"/>
-      <c r="BX2" s="377"/>
-      <c r="BY2" s="377"/>
-      <c r="BZ2" s="377"/>
-      <c r="CA2" s="377"/>
-      <c r="CB2" s="377"/>
-      <c r="CC2" s="377"/>
-      <c r="CD2" s="377"/>
-      <c r="CE2" s="377"/>
-      <c r="CF2" s="377"/>
-      <c r="CG2" s="377"/>
-      <c r="CH2" s="377"/>
-      <c r="CI2" s="377"/>
-      <c r="CJ2" s="377"/>
-      <c r="CK2" s="377"/>
-      <c r="CL2" s="377"/>
-      <c r="CM2" s="377"/>
-      <c r="CN2" s="377"/>
-      <c r="CO2" s="377"/>
-      <c r="CP2" s="376" t="s">
+      <c r="BM2" s="385"/>
+      <c r="BN2" s="385"/>
+      <c r="BO2" s="385"/>
+      <c r="BP2" s="385"/>
+      <c r="BQ2" s="385"/>
+      <c r="BR2" s="385"/>
+      <c r="BS2" s="385"/>
+      <c r="BT2" s="385"/>
+      <c r="BU2" s="385"/>
+      <c r="BV2" s="385"/>
+      <c r="BW2" s="385"/>
+      <c r="BX2" s="385"/>
+      <c r="BY2" s="385"/>
+      <c r="BZ2" s="385"/>
+      <c r="CA2" s="385"/>
+      <c r="CB2" s="385"/>
+      <c r="CC2" s="385"/>
+      <c r="CD2" s="385"/>
+      <c r="CE2" s="385"/>
+      <c r="CF2" s="385"/>
+      <c r="CG2" s="385"/>
+      <c r="CH2" s="385"/>
+      <c r="CI2" s="385"/>
+      <c r="CJ2" s="385"/>
+      <c r="CK2" s="385"/>
+      <c r="CL2" s="385"/>
+      <c r="CM2" s="385"/>
+      <c r="CN2" s="385"/>
+      <c r="CO2" s="385"/>
+      <c r="CP2" s="386" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="377"/>
-      <c r="CR2" s="377"/>
-      <c r="CS2" s="377"/>
-      <c r="CT2" s="377"/>
-      <c r="CU2" s="377"/>
-      <c r="CV2" s="377"/>
-      <c r="CW2" s="377"/>
-      <c r="CX2" s="377"/>
-      <c r="CY2" s="377"/>
-      <c r="CZ2" s="377"/>
-      <c r="DA2" s="377"/>
-      <c r="DB2" s="377"/>
-      <c r="DC2" s="377"/>
-      <c r="DD2" s="377"/>
-      <c r="DE2" s="377"/>
-      <c r="DF2" s="377"/>
-      <c r="DG2" s="377"/>
-      <c r="DH2" s="377"/>
-      <c r="DI2" s="377"/>
-      <c r="DJ2" s="377"/>
-      <c r="DK2" s="377"/>
-      <c r="DL2" s="377"/>
-      <c r="DM2" s="377"/>
-      <c r="DN2" s="377"/>
-      <c r="DO2" s="377"/>
-      <c r="DP2" s="377"/>
-      <c r="DQ2" s="377"/>
-      <c r="DR2" s="377"/>
-      <c r="DS2" s="377"/>
-      <c r="DT2" s="378"/>
-      <c r="DU2" s="379" t="s">
+      <c r="CQ2" s="385"/>
+      <c r="CR2" s="385"/>
+      <c r="CS2" s="385"/>
+      <c r="CT2" s="385"/>
+      <c r="CU2" s="385"/>
+      <c r="CV2" s="385"/>
+      <c r="CW2" s="385"/>
+      <c r="CX2" s="385"/>
+      <c r="CY2" s="385"/>
+      <c r="CZ2" s="385"/>
+      <c r="DA2" s="385"/>
+      <c r="DB2" s="385"/>
+      <c r="DC2" s="385"/>
+      <c r="DD2" s="385"/>
+      <c r="DE2" s="385"/>
+      <c r="DF2" s="385"/>
+      <c r="DG2" s="385"/>
+      <c r="DH2" s="385"/>
+      <c r="DI2" s="385"/>
+      <c r="DJ2" s="385"/>
+      <c r="DK2" s="385"/>
+      <c r="DL2" s="385"/>
+      <c r="DM2" s="385"/>
+      <c r="DN2" s="385"/>
+      <c r="DO2" s="385"/>
+      <c r="DP2" s="385"/>
+      <c r="DQ2" s="385"/>
+      <c r="DR2" s="385"/>
+      <c r="DS2" s="385"/>
+      <c r="DT2" s="387"/>
+      <c r="DU2" s="388" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="388"/>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="391"/>
+      <c r="A3" s="381"/>
+      <c r="B3" s="382"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24093,14 +24110,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="380"/>
+      <c r="DU3" s="389"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="381" t="s">
+      <c r="B4" s="390" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="382"/>
+      <c r="C4" s="391"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -27089,11 +27106,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="CP2:DT2"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="B4:C4"/>
@@ -27101,13 +27120,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="AG2:BK2"/>
     <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27650,10 +27667,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27669,6 +27686,11 @@
     <row r="2" spans="1:1">
       <c r="A2">
         <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="364" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="989">
   <si>
     <t>No</t>
   </si>
@@ -8707,6 +8707,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>est 2019.06.13.01</t>
+    </r>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est 2019.06.13.02</t>
     </r>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
@@ -14470,6 +14487,27 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="77" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="79" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14496,27 +14534,6 @@
     </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="77" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="79" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15598,7 +15615,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15693,7 +15710,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15776,7 +15793,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15859,7 +15876,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15942,7 +15959,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23476,12 +23493,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="383" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="377"/>
-      <c r="C1" s="377"/>
-      <c r="D1" s="378"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="385"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23605,151 +23622,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="386" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="380"/>
-      <c r="C2" s="380"/>
-      <c r="D2" s="383" t="s">
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="390" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="385" t="s">
+      <c r="E2" s="377" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="385"/>
-      <c r="P2" s="385"/>
-      <c r="Q2" s="385"/>
-      <c r="R2" s="385"/>
-      <c r="S2" s="385"/>
-      <c r="T2" s="385"/>
-      <c r="U2" s="385"/>
-      <c r="V2" s="385"/>
-      <c r="W2" s="385"/>
-      <c r="X2" s="385"/>
-      <c r="Y2" s="385"/>
-      <c r="Z2" s="385"/>
-      <c r="AA2" s="385"/>
-      <c r="AB2" s="385"/>
-      <c r="AC2" s="385"/>
-      <c r="AD2" s="385"/>
-      <c r="AE2" s="385"/>
-      <c r="AF2" s="385"/>
-      <c r="AG2" s="386" t="s">
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="377"/>
+      <c r="U2" s="377"/>
+      <c r="V2" s="377"/>
+      <c r="W2" s="377"/>
+      <c r="X2" s="377"/>
+      <c r="Y2" s="377"/>
+      <c r="Z2" s="377"/>
+      <c r="AA2" s="377"/>
+      <c r="AB2" s="377"/>
+      <c r="AC2" s="377"/>
+      <c r="AD2" s="377"/>
+      <c r="AE2" s="377"/>
+      <c r="AF2" s="377"/>
+      <c r="AG2" s="376" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="385"/>
-      <c r="AI2" s="385"/>
-      <c r="AJ2" s="385"/>
-      <c r="AK2" s="385"/>
-      <c r="AL2" s="385"/>
-      <c r="AM2" s="385"/>
-      <c r="AN2" s="385"/>
-      <c r="AO2" s="385"/>
-      <c r="AP2" s="385"/>
-      <c r="AQ2" s="385"/>
-      <c r="AR2" s="385"/>
-      <c r="AS2" s="385"/>
-      <c r="AT2" s="385"/>
-      <c r="AU2" s="385"/>
-      <c r="AV2" s="385"/>
-      <c r="AW2" s="385"/>
-      <c r="AX2" s="385"/>
-      <c r="AY2" s="385"/>
-      <c r="AZ2" s="385"/>
-      <c r="BA2" s="385"/>
-      <c r="BB2" s="385"/>
-      <c r="BC2" s="385"/>
-      <c r="BD2" s="385"/>
-      <c r="BE2" s="385"/>
-      <c r="BF2" s="385"/>
-      <c r="BG2" s="385"/>
-      <c r="BH2" s="385"/>
-      <c r="BI2" s="385"/>
-      <c r="BJ2" s="385"/>
-      <c r="BK2" s="387"/>
-      <c r="BL2" s="386" t="s">
+      <c r="AH2" s="377"/>
+      <c r="AI2" s="377"/>
+      <c r="AJ2" s="377"/>
+      <c r="AK2" s="377"/>
+      <c r="AL2" s="377"/>
+      <c r="AM2" s="377"/>
+      <c r="AN2" s="377"/>
+      <c r="AO2" s="377"/>
+      <c r="AP2" s="377"/>
+      <c r="AQ2" s="377"/>
+      <c r="AR2" s="377"/>
+      <c r="AS2" s="377"/>
+      <c r="AT2" s="377"/>
+      <c r="AU2" s="377"/>
+      <c r="AV2" s="377"/>
+      <c r="AW2" s="377"/>
+      <c r="AX2" s="377"/>
+      <c r="AY2" s="377"/>
+      <c r="AZ2" s="377"/>
+      <c r="BA2" s="377"/>
+      <c r="BB2" s="377"/>
+      <c r="BC2" s="377"/>
+      <c r="BD2" s="377"/>
+      <c r="BE2" s="377"/>
+      <c r="BF2" s="377"/>
+      <c r="BG2" s="377"/>
+      <c r="BH2" s="377"/>
+      <c r="BI2" s="377"/>
+      <c r="BJ2" s="377"/>
+      <c r="BK2" s="378"/>
+      <c r="BL2" s="376" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="385"/>
-      <c r="BN2" s="385"/>
-      <c r="BO2" s="385"/>
-      <c r="BP2" s="385"/>
-      <c r="BQ2" s="385"/>
-      <c r="BR2" s="385"/>
-      <c r="BS2" s="385"/>
-      <c r="BT2" s="385"/>
-      <c r="BU2" s="385"/>
-      <c r="BV2" s="385"/>
-      <c r="BW2" s="385"/>
-      <c r="BX2" s="385"/>
-      <c r="BY2" s="385"/>
-      <c r="BZ2" s="385"/>
-      <c r="CA2" s="385"/>
-      <c r="CB2" s="385"/>
-      <c r="CC2" s="385"/>
-      <c r="CD2" s="385"/>
-      <c r="CE2" s="385"/>
-      <c r="CF2" s="385"/>
-      <c r="CG2" s="385"/>
-      <c r="CH2" s="385"/>
-      <c r="CI2" s="385"/>
-      <c r="CJ2" s="385"/>
-      <c r="CK2" s="385"/>
-      <c r="CL2" s="385"/>
-      <c r="CM2" s="385"/>
-      <c r="CN2" s="385"/>
-      <c r="CO2" s="385"/>
-      <c r="CP2" s="386" t="s">
+      <c r="BM2" s="377"/>
+      <c r="BN2" s="377"/>
+      <c r="BO2" s="377"/>
+      <c r="BP2" s="377"/>
+      <c r="BQ2" s="377"/>
+      <c r="BR2" s="377"/>
+      <c r="BS2" s="377"/>
+      <c r="BT2" s="377"/>
+      <c r="BU2" s="377"/>
+      <c r="BV2" s="377"/>
+      <c r="BW2" s="377"/>
+      <c r="BX2" s="377"/>
+      <c r="BY2" s="377"/>
+      <c r="BZ2" s="377"/>
+      <c r="CA2" s="377"/>
+      <c r="CB2" s="377"/>
+      <c r="CC2" s="377"/>
+      <c r="CD2" s="377"/>
+      <c r="CE2" s="377"/>
+      <c r="CF2" s="377"/>
+      <c r="CG2" s="377"/>
+      <c r="CH2" s="377"/>
+      <c r="CI2" s="377"/>
+      <c r="CJ2" s="377"/>
+      <c r="CK2" s="377"/>
+      <c r="CL2" s="377"/>
+      <c r="CM2" s="377"/>
+      <c r="CN2" s="377"/>
+      <c r="CO2" s="377"/>
+      <c r="CP2" s="376" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="385"/>
-      <c r="CR2" s="385"/>
-      <c r="CS2" s="385"/>
-      <c r="CT2" s="385"/>
-      <c r="CU2" s="385"/>
-      <c r="CV2" s="385"/>
-      <c r="CW2" s="385"/>
-      <c r="CX2" s="385"/>
-      <c r="CY2" s="385"/>
-      <c r="CZ2" s="385"/>
-      <c r="DA2" s="385"/>
-      <c r="DB2" s="385"/>
-      <c r="DC2" s="385"/>
-      <c r="DD2" s="385"/>
-      <c r="DE2" s="385"/>
-      <c r="DF2" s="385"/>
-      <c r="DG2" s="385"/>
-      <c r="DH2" s="385"/>
-      <c r="DI2" s="385"/>
-      <c r="DJ2" s="385"/>
-      <c r="DK2" s="385"/>
-      <c r="DL2" s="385"/>
-      <c r="DM2" s="385"/>
-      <c r="DN2" s="385"/>
-      <c r="DO2" s="385"/>
-      <c r="DP2" s="385"/>
-      <c r="DQ2" s="385"/>
-      <c r="DR2" s="385"/>
-      <c r="DS2" s="385"/>
-      <c r="DT2" s="387"/>
-      <c r="DU2" s="388" t="s">
+      <c r="CQ2" s="377"/>
+      <c r="CR2" s="377"/>
+      <c r="CS2" s="377"/>
+      <c r="CT2" s="377"/>
+      <c r="CU2" s="377"/>
+      <c r="CV2" s="377"/>
+      <c r="CW2" s="377"/>
+      <c r="CX2" s="377"/>
+      <c r="CY2" s="377"/>
+      <c r="CZ2" s="377"/>
+      <c r="DA2" s="377"/>
+      <c r="DB2" s="377"/>
+      <c r="DC2" s="377"/>
+      <c r="DD2" s="377"/>
+      <c r="DE2" s="377"/>
+      <c r="DF2" s="377"/>
+      <c r="DG2" s="377"/>
+      <c r="DH2" s="377"/>
+      <c r="DI2" s="377"/>
+      <c r="DJ2" s="377"/>
+      <c r="DK2" s="377"/>
+      <c r="DL2" s="377"/>
+      <c r="DM2" s="377"/>
+      <c r="DN2" s="377"/>
+      <c r="DO2" s="377"/>
+      <c r="DP2" s="377"/>
+      <c r="DQ2" s="377"/>
+      <c r="DR2" s="377"/>
+      <c r="DS2" s="377"/>
+      <c r="DT2" s="378"/>
+      <c r="DU2" s="379" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="381"/>
-      <c r="B3" s="382"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="384"/>
+      <c r="A3" s="388"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="391"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24110,14 +24127,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="389"/>
+      <c r="DU3" s="380"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="390" t="s">
+      <c r="B4" s="381" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="391"/>
+      <c r="C4" s="382"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -27106,6 +27123,18 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="CP2:DT2"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AG2:BK2"/>
+    <mergeCell ref="BL2:CO2"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
@@ -27113,18 +27142,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="CP2:DT2"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AG2:BK2"/>
-    <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27667,10 +27684,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27691,6 +27708,11 @@
     <row r="3" spans="1:1">
       <c r="A3" s="364" t="s">
         <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="364" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naky\Desktop\해외사이트PendingItems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\팀관리\PendingItem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="990">
   <si>
     <t>No</t>
   </si>
@@ -8725,6 +8725,10 @@
       </rPr>
       <t>est 2019.06.13.02</t>
     </r>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 2019.06.13.04</t>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
 </sst>
@@ -14487,12 +14491,39 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14507,33 +14538,6 @@
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15615,7 +15619,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15710,7 +15714,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15793,7 +15797,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15876,7 +15880,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15959,7 +15963,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23493,12 +23497,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="376" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="378"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23622,151 +23626,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="390" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="377" t="s">
+      <c r="E2" s="385" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
-      <c r="S2" s="377"/>
-      <c r="T2" s="377"/>
-      <c r="U2" s="377"/>
-      <c r="V2" s="377"/>
-      <c r="W2" s="377"/>
-      <c r="X2" s="377"/>
-      <c r="Y2" s="377"/>
-      <c r="Z2" s="377"/>
-      <c r="AA2" s="377"/>
-      <c r="AB2" s="377"/>
-      <c r="AC2" s="377"/>
-      <c r="AD2" s="377"/>
-      <c r="AE2" s="377"/>
-      <c r="AF2" s="377"/>
-      <c r="AG2" s="376" t="s">
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="385"/>
+      <c r="P2" s="385"/>
+      <c r="Q2" s="385"/>
+      <c r="R2" s="385"/>
+      <c r="S2" s="385"/>
+      <c r="T2" s="385"/>
+      <c r="U2" s="385"/>
+      <c r="V2" s="385"/>
+      <c r="W2" s="385"/>
+      <c r="X2" s="385"/>
+      <c r="Y2" s="385"/>
+      <c r="Z2" s="385"/>
+      <c r="AA2" s="385"/>
+      <c r="AB2" s="385"/>
+      <c r="AC2" s="385"/>
+      <c r="AD2" s="385"/>
+      <c r="AE2" s="385"/>
+      <c r="AF2" s="385"/>
+      <c r="AG2" s="386" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="377"/>
-      <c r="AI2" s="377"/>
-      <c r="AJ2" s="377"/>
-      <c r="AK2" s="377"/>
-      <c r="AL2" s="377"/>
-      <c r="AM2" s="377"/>
-      <c r="AN2" s="377"/>
-      <c r="AO2" s="377"/>
-      <c r="AP2" s="377"/>
-      <c r="AQ2" s="377"/>
-      <c r="AR2" s="377"/>
-      <c r="AS2" s="377"/>
-      <c r="AT2" s="377"/>
-      <c r="AU2" s="377"/>
-      <c r="AV2" s="377"/>
-      <c r="AW2" s="377"/>
-      <c r="AX2" s="377"/>
-      <c r="AY2" s="377"/>
-      <c r="AZ2" s="377"/>
-      <c r="BA2" s="377"/>
-      <c r="BB2" s="377"/>
-      <c r="BC2" s="377"/>
-      <c r="BD2" s="377"/>
-      <c r="BE2" s="377"/>
-      <c r="BF2" s="377"/>
-      <c r="BG2" s="377"/>
-      <c r="BH2" s="377"/>
-      <c r="BI2" s="377"/>
-      <c r="BJ2" s="377"/>
-      <c r="BK2" s="378"/>
-      <c r="BL2" s="376" t="s">
+      <c r="AH2" s="385"/>
+      <c r="AI2" s="385"/>
+      <c r="AJ2" s="385"/>
+      <c r="AK2" s="385"/>
+      <c r="AL2" s="385"/>
+      <c r="AM2" s="385"/>
+      <c r="AN2" s="385"/>
+      <c r="AO2" s="385"/>
+      <c r="AP2" s="385"/>
+      <c r="AQ2" s="385"/>
+      <c r="AR2" s="385"/>
+      <c r="AS2" s="385"/>
+      <c r="AT2" s="385"/>
+      <c r="AU2" s="385"/>
+      <c r="AV2" s="385"/>
+      <c r="AW2" s="385"/>
+      <c r="AX2" s="385"/>
+      <c r="AY2" s="385"/>
+      <c r="AZ2" s="385"/>
+      <c r="BA2" s="385"/>
+      <c r="BB2" s="385"/>
+      <c r="BC2" s="385"/>
+      <c r="BD2" s="385"/>
+      <c r="BE2" s="385"/>
+      <c r="BF2" s="385"/>
+      <c r="BG2" s="385"/>
+      <c r="BH2" s="385"/>
+      <c r="BI2" s="385"/>
+      <c r="BJ2" s="385"/>
+      <c r="BK2" s="387"/>
+      <c r="BL2" s="386" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="377"/>
-      <c r="BN2" s="377"/>
-      <c r="BO2" s="377"/>
-      <c r="BP2" s="377"/>
-      <c r="BQ2" s="377"/>
-      <c r="BR2" s="377"/>
-      <c r="BS2" s="377"/>
-      <c r="BT2" s="377"/>
-      <c r="BU2" s="377"/>
-      <c r="BV2" s="377"/>
-      <c r="BW2" s="377"/>
-      <c r="BX2" s="377"/>
-      <c r="BY2" s="377"/>
-      <c r="BZ2" s="377"/>
-      <c r="CA2" s="377"/>
-      <c r="CB2" s="377"/>
-      <c r="CC2" s="377"/>
-      <c r="CD2" s="377"/>
-      <c r="CE2" s="377"/>
-      <c r="CF2" s="377"/>
-      <c r="CG2" s="377"/>
-      <c r="CH2" s="377"/>
-      <c r="CI2" s="377"/>
-      <c r="CJ2" s="377"/>
-      <c r="CK2" s="377"/>
-      <c r="CL2" s="377"/>
-      <c r="CM2" s="377"/>
-      <c r="CN2" s="377"/>
-      <c r="CO2" s="377"/>
-      <c r="CP2" s="376" t="s">
+      <c r="BM2" s="385"/>
+      <c r="BN2" s="385"/>
+      <c r="BO2" s="385"/>
+      <c r="BP2" s="385"/>
+      <c r="BQ2" s="385"/>
+      <c r="BR2" s="385"/>
+      <c r="BS2" s="385"/>
+      <c r="BT2" s="385"/>
+      <c r="BU2" s="385"/>
+      <c r="BV2" s="385"/>
+      <c r="BW2" s="385"/>
+      <c r="BX2" s="385"/>
+      <c r="BY2" s="385"/>
+      <c r="BZ2" s="385"/>
+      <c r="CA2" s="385"/>
+      <c r="CB2" s="385"/>
+      <c r="CC2" s="385"/>
+      <c r="CD2" s="385"/>
+      <c r="CE2" s="385"/>
+      <c r="CF2" s="385"/>
+      <c r="CG2" s="385"/>
+      <c r="CH2" s="385"/>
+      <c r="CI2" s="385"/>
+      <c r="CJ2" s="385"/>
+      <c r="CK2" s="385"/>
+      <c r="CL2" s="385"/>
+      <c r="CM2" s="385"/>
+      <c r="CN2" s="385"/>
+      <c r="CO2" s="385"/>
+      <c r="CP2" s="386" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="377"/>
-      <c r="CR2" s="377"/>
-      <c r="CS2" s="377"/>
-      <c r="CT2" s="377"/>
-      <c r="CU2" s="377"/>
-      <c r="CV2" s="377"/>
-      <c r="CW2" s="377"/>
-      <c r="CX2" s="377"/>
-      <c r="CY2" s="377"/>
-      <c r="CZ2" s="377"/>
-      <c r="DA2" s="377"/>
-      <c r="DB2" s="377"/>
-      <c r="DC2" s="377"/>
-      <c r="DD2" s="377"/>
-      <c r="DE2" s="377"/>
-      <c r="DF2" s="377"/>
-      <c r="DG2" s="377"/>
-      <c r="DH2" s="377"/>
-      <c r="DI2" s="377"/>
-      <c r="DJ2" s="377"/>
-      <c r="DK2" s="377"/>
-      <c r="DL2" s="377"/>
-      <c r="DM2" s="377"/>
-      <c r="DN2" s="377"/>
-      <c r="DO2" s="377"/>
-      <c r="DP2" s="377"/>
-      <c r="DQ2" s="377"/>
-      <c r="DR2" s="377"/>
-      <c r="DS2" s="377"/>
-      <c r="DT2" s="378"/>
-      <c r="DU2" s="379" t="s">
+      <c r="CQ2" s="385"/>
+      <c r="CR2" s="385"/>
+      <c r="CS2" s="385"/>
+      <c r="CT2" s="385"/>
+      <c r="CU2" s="385"/>
+      <c r="CV2" s="385"/>
+      <c r="CW2" s="385"/>
+      <c r="CX2" s="385"/>
+      <c r="CY2" s="385"/>
+      <c r="CZ2" s="385"/>
+      <c r="DA2" s="385"/>
+      <c r="DB2" s="385"/>
+      <c r="DC2" s="385"/>
+      <c r="DD2" s="385"/>
+      <c r="DE2" s="385"/>
+      <c r="DF2" s="385"/>
+      <c r="DG2" s="385"/>
+      <c r="DH2" s="385"/>
+      <c r="DI2" s="385"/>
+      <c r="DJ2" s="385"/>
+      <c r="DK2" s="385"/>
+      <c r="DL2" s="385"/>
+      <c r="DM2" s="385"/>
+      <c r="DN2" s="385"/>
+      <c r="DO2" s="385"/>
+      <c r="DP2" s="385"/>
+      <c r="DQ2" s="385"/>
+      <c r="DR2" s="385"/>
+      <c r="DS2" s="385"/>
+      <c r="DT2" s="387"/>
+      <c r="DU2" s="388" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="388"/>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="391"/>
+      <c r="A3" s="381"/>
+      <c r="B3" s="382"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24127,14 +24131,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="380"/>
+      <c r="DU3" s="389"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="381" t="s">
+      <c r="B4" s="390" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="382"/>
+      <c r="C4" s="391"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -27123,11 +27127,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="CP2:DT2"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="B4:C4"/>
@@ -27135,13 +27141,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="AG2:BK2"/>
     <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27684,10 +27688,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27713,6 +27717,11 @@
     <row r="4" spans="1:1">
       <c r="A4" s="364" t="s">
         <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="364" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="990">
   <si>
     <t>No</t>
   </si>
@@ -8725,6 +8725,10 @@
       </rPr>
       <t>est 2019.06.13.02</t>
     </r>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 2019.06.13.03</t>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
 </sst>
@@ -14487,12 +14491,39 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14507,33 +14538,6 @@
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15615,7 +15619,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15710,7 +15714,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15793,7 +15797,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15876,7 +15880,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15959,7 +15963,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23493,12 +23497,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="376" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="378"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23622,151 +23626,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="390" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="377" t="s">
+      <c r="E2" s="385" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
-      <c r="S2" s="377"/>
-      <c r="T2" s="377"/>
-      <c r="U2" s="377"/>
-      <c r="V2" s="377"/>
-      <c r="W2" s="377"/>
-      <c r="X2" s="377"/>
-      <c r="Y2" s="377"/>
-      <c r="Z2" s="377"/>
-      <c r="AA2" s="377"/>
-      <c r="AB2" s="377"/>
-      <c r="AC2" s="377"/>
-      <c r="AD2" s="377"/>
-      <c r="AE2" s="377"/>
-      <c r="AF2" s="377"/>
-      <c r="AG2" s="376" t="s">
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="385"/>
+      <c r="P2" s="385"/>
+      <c r="Q2" s="385"/>
+      <c r="R2" s="385"/>
+      <c r="S2" s="385"/>
+      <c r="T2" s="385"/>
+      <c r="U2" s="385"/>
+      <c r="V2" s="385"/>
+      <c r="W2" s="385"/>
+      <c r="X2" s="385"/>
+      <c r="Y2" s="385"/>
+      <c r="Z2" s="385"/>
+      <c r="AA2" s="385"/>
+      <c r="AB2" s="385"/>
+      <c r="AC2" s="385"/>
+      <c r="AD2" s="385"/>
+      <c r="AE2" s="385"/>
+      <c r="AF2" s="385"/>
+      <c r="AG2" s="386" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="377"/>
-      <c r="AI2" s="377"/>
-      <c r="AJ2" s="377"/>
-      <c r="AK2" s="377"/>
-      <c r="AL2" s="377"/>
-      <c r="AM2" s="377"/>
-      <c r="AN2" s="377"/>
-      <c r="AO2" s="377"/>
-      <c r="AP2" s="377"/>
-      <c r="AQ2" s="377"/>
-      <c r="AR2" s="377"/>
-      <c r="AS2" s="377"/>
-      <c r="AT2" s="377"/>
-      <c r="AU2" s="377"/>
-      <c r="AV2" s="377"/>
-      <c r="AW2" s="377"/>
-      <c r="AX2" s="377"/>
-      <c r="AY2" s="377"/>
-      <c r="AZ2" s="377"/>
-      <c r="BA2" s="377"/>
-      <c r="BB2" s="377"/>
-      <c r="BC2" s="377"/>
-      <c r="BD2" s="377"/>
-      <c r="BE2" s="377"/>
-      <c r="BF2" s="377"/>
-      <c r="BG2" s="377"/>
-      <c r="BH2" s="377"/>
-      <c r="BI2" s="377"/>
-      <c r="BJ2" s="377"/>
-      <c r="BK2" s="378"/>
-      <c r="BL2" s="376" t="s">
+      <c r="AH2" s="385"/>
+      <c r="AI2" s="385"/>
+      <c r="AJ2" s="385"/>
+      <c r="AK2" s="385"/>
+      <c r="AL2" s="385"/>
+      <c r="AM2" s="385"/>
+      <c r="AN2" s="385"/>
+      <c r="AO2" s="385"/>
+      <c r="AP2" s="385"/>
+      <c r="AQ2" s="385"/>
+      <c r="AR2" s="385"/>
+      <c r="AS2" s="385"/>
+      <c r="AT2" s="385"/>
+      <c r="AU2" s="385"/>
+      <c r="AV2" s="385"/>
+      <c r="AW2" s="385"/>
+      <c r="AX2" s="385"/>
+      <c r="AY2" s="385"/>
+      <c r="AZ2" s="385"/>
+      <c r="BA2" s="385"/>
+      <c r="BB2" s="385"/>
+      <c r="BC2" s="385"/>
+      <c r="BD2" s="385"/>
+      <c r="BE2" s="385"/>
+      <c r="BF2" s="385"/>
+      <c r="BG2" s="385"/>
+      <c r="BH2" s="385"/>
+      <c r="BI2" s="385"/>
+      <c r="BJ2" s="385"/>
+      <c r="BK2" s="387"/>
+      <c r="BL2" s="386" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="377"/>
-      <c r="BN2" s="377"/>
-      <c r="BO2" s="377"/>
-      <c r="BP2" s="377"/>
-      <c r="BQ2" s="377"/>
-      <c r="BR2" s="377"/>
-      <c r="BS2" s="377"/>
-      <c r="BT2" s="377"/>
-      <c r="BU2" s="377"/>
-      <c r="BV2" s="377"/>
-      <c r="BW2" s="377"/>
-      <c r="BX2" s="377"/>
-      <c r="BY2" s="377"/>
-      <c r="BZ2" s="377"/>
-      <c r="CA2" s="377"/>
-      <c r="CB2" s="377"/>
-      <c r="CC2" s="377"/>
-      <c r="CD2" s="377"/>
-      <c r="CE2" s="377"/>
-      <c r="CF2" s="377"/>
-      <c r="CG2" s="377"/>
-      <c r="CH2" s="377"/>
-      <c r="CI2" s="377"/>
-      <c r="CJ2" s="377"/>
-      <c r="CK2" s="377"/>
-      <c r="CL2" s="377"/>
-      <c r="CM2" s="377"/>
-      <c r="CN2" s="377"/>
-      <c r="CO2" s="377"/>
-      <c r="CP2" s="376" t="s">
+      <c r="BM2" s="385"/>
+      <c r="BN2" s="385"/>
+      <c r="BO2" s="385"/>
+      <c r="BP2" s="385"/>
+      <c r="BQ2" s="385"/>
+      <c r="BR2" s="385"/>
+      <c r="BS2" s="385"/>
+      <c r="BT2" s="385"/>
+      <c r="BU2" s="385"/>
+      <c r="BV2" s="385"/>
+      <c r="BW2" s="385"/>
+      <c r="BX2" s="385"/>
+      <c r="BY2" s="385"/>
+      <c r="BZ2" s="385"/>
+      <c r="CA2" s="385"/>
+      <c r="CB2" s="385"/>
+      <c r="CC2" s="385"/>
+      <c r="CD2" s="385"/>
+      <c r="CE2" s="385"/>
+      <c r="CF2" s="385"/>
+      <c r="CG2" s="385"/>
+      <c r="CH2" s="385"/>
+      <c r="CI2" s="385"/>
+      <c r="CJ2" s="385"/>
+      <c r="CK2" s="385"/>
+      <c r="CL2" s="385"/>
+      <c r="CM2" s="385"/>
+      <c r="CN2" s="385"/>
+      <c r="CO2" s="385"/>
+      <c r="CP2" s="386" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="377"/>
-      <c r="CR2" s="377"/>
-      <c r="CS2" s="377"/>
-      <c r="CT2" s="377"/>
-      <c r="CU2" s="377"/>
-      <c r="CV2" s="377"/>
-      <c r="CW2" s="377"/>
-      <c r="CX2" s="377"/>
-      <c r="CY2" s="377"/>
-      <c r="CZ2" s="377"/>
-      <c r="DA2" s="377"/>
-      <c r="DB2" s="377"/>
-      <c r="DC2" s="377"/>
-      <c r="DD2" s="377"/>
-      <c r="DE2" s="377"/>
-      <c r="DF2" s="377"/>
-      <c r="DG2" s="377"/>
-      <c r="DH2" s="377"/>
-      <c r="DI2" s="377"/>
-      <c r="DJ2" s="377"/>
-      <c r="DK2" s="377"/>
-      <c r="DL2" s="377"/>
-      <c r="DM2" s="377"/>
-      <c r="DN2" s="377"/>
-      <c r="DO2" s="377"/>
-      <c r="DP2" s="377"/>
-      <c r="DQ2" s="377"/>
-      <c r="DR2" s="377"/>
-      <c r="DS2" s="377"/>
-      <c r="DT2" s="378"/>
-      <c r="DU2" s="379" t="s">
+      <c r="CQ2" s="385"/>
+      <c r="CR2" s="385"/>
+      <c r="CS2" s="385"/>
+      <c r="CT2" s="385"/>
+      <c r="CU2" s="385"/>
+      <c r="CV2" s="385"/>
+      <c r="CW2" s="385"/>
+      <c r="CX2" s="385"/>
+      <c r="CY2" s="385"/>
+      <c r="CZ2" s="385"/>
+      <c r="DA2" s="385"/>
+      <c r="DB2" s="385"/>
+      <c r="DC2" s="385"/>
+      <c r="DD2" s="385"/>
+      <c r="DE2" s="385"/>
+      <c r="DF2" s="385"/>
+      <c r="DG2" s="385"/>
+      <c r="DH2" s="385"/>
+      <c r="DI2" s="385"/>
+      <c r="DJ2" s="385"/>
+      <c r="DK2" s="385"/>
+      <c r="DL2" s="385"/>
+      <c r="DM2" s="385"/>
+      <c r="DN2" s="385"/>
+      <c r="DO2" s="385"/>
+      <c r="DP2" s="385"/>
+      <c r="DQ2" s="385"/>
+      <c r="DR2" s="385"/>
+      <c r="DS2" s="385"/>
+      <c r="DT2" s="387"/>
+      <c r="DU2" s="388" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="388"/>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="391"/>
+      <c r="A3" s="381"/>
+      <c r="B3" s="382"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24127,14 +24131,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="380"/>
+      <c r="DU3" s="389"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="381" t="s">
+      <c r="B4" s="390" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="382"/>
+      <c r="C4" s="391"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -27123,11 +27127,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="CP2:DT2"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="B4:C4"/>
@@ -27135,13 +27141,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="AG2:BK2"/>
     <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27684,10 +27688,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27713,6 +27717,11 @@
     <row r="4" spans="1:1">
       <c r="A4" s="364" t="s">
         <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="364" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>

--- a/SW_Pending.xlsx
+++ b/SW_Pending.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="991">
   <si>
     <t>No</t>
   </si>
@@ -8729,6 +8729,10 @@
   </si>
   <si>
     <t>test 2019.06.13.03</t>
+    <phoneticPr fontId="62" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict2222</t>
     <phoneticPr fontId="62" type="noConversion"/>
   </si>
 </sst>
@@ -14491,12 +14495,39 @@
     <xf numFmtId="0" fontId="161" fillId="0" borderId="68" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="66" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="65" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="157" fillId="58" borderId="64" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14511,33 +14542,6 @@
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="80" xfId="826" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="69" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="67" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="33" borderId="68" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="70" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="71" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="73" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="74" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="72" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="58" borderId="75" xfId="826" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="92" fillId="2" borderId="0" xfId="193" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15619,7 +15623,7 @@
         <xdr:cNvPr id="2" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15714,7 +15718,7 @@
         <xdr:cNvPr id="3" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15797,7 +15801,7 @@
         <xdr:cNvPr id="4" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15880,7 +15884,7 @@
         <xdr:cNvPr id="5" name="矩形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15963,7 +15967,7 @@
         <xdr:cNvPr id="6" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23497,12 +23501,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="376" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="384"/>
-      <c r="C1" s="384"/>
-      <c r="D1" s="385"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="378"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -23626,151 +23630,151 @@
       <c r="DU1" s="70"/>
     </row>
     <row r="2" spans="1:125" ht="24" customHeight="1">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="379" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="390" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="383" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="377" t="s">
+      <c r="E2" s="385" t="s">
         <v>422</v>
       </c>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
-      <c r="S2" s="377"/>
-      <c r="T2" s="377"/>
-      <c r="U2" s="377"/>
-      <c r="V2" s="377"/>
-      <c r="W2" s="377"/>
-      <c r="X2" s="377"/>
-      <c r="Y2" s="377"/>
-      <c r="Z2" s="377"/>
-      <c r="AA2" s="377"/>
-      <c r="AB2" s="377"/>
-      <c r="AC2" s="377"/>
-      <c r="AD2" s="377"/>
-      <c r="AE2" s="377"/>
-      <c r="AF2" s="377"/>
-      <c r="AG2" s="376" t="s">
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
+      <c r="H2" s="385"/>
+      <c r="I2" s="385"/>
+      <c r="J2" s="385"/>
+      <c r="K2" s="385"/>
+      <c r="L2" s="385"/>
+      <c r="M2" s="385"/>
+      <c r="N2" s="385"/>
+      <c r="O2" s="385"/>
+      <c r="P2" s="385"/>
+      <c r="Q2" s="385"/>
+      <c r="R2" s="385"/>
+      <c r="S2" s="385"/>
+      <c r="T2" s="385"/>
+      <c r="U2" s="385"/>
+      <c r="V2" s="385"/>
+      <c r="W2" s="385"/>
+      <c r="X2" s="385"/>
+      <c r="Y2" s="385"/>
+      <c r="Z2" s="385"/>
+      <c r="AA2" s="385"/>
+      <c r="AB2" s="385"/>
+      <c r="AC2" s="385"/>
+      <c r="AD2" s="385"/>
+      <c r="AE2" s="385"/>
+      <c r="AF2" s="385"/>
+      <c r="AG2" s="386" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" s="377"/>
-      <c r="AI2" s="377"/>
-      <c r="AJ2" s="377"/>
-      <c r="AK2" s="377"/>
-      <c r="AL2" s="377"/>
-      <c r="AM2" s="377"/>
-      <c r="AN2" s="377"/>
-      <c r="AO2" s="377"/>
-      <c r="AP2" s="377"/>
-      <c r="AQ2" s="377"/>
-      <c r="AR2" s="377"/>
-      <c r="AS2" s="377"/>
-      <c r="AT2" s="377"/>
-      <c r="AU2" s="377"/>
-      <c r="AV2" s="377"/>
-      <c r="AW2" s="377"/>
-      <c r="AX2" s="377"/>
-      <c r="AY2" s="377"/>
-      <c r="AZ2" s="377"/>
-      <c r="BA2" s="377"/>
-      <c r="BB2" s="377"/>
-      <c r="BC2" s="377"/>
-      <c r="BD2" s="377"/>
-      <c r="BE2" s="377"/>
-      <c r="BF2" s="377"/>
-      <c r="BG2" s="377"/>
-      <c r="BH2" s="377"/>
-      <c r="BI2" s="377"/>
-      <c r="BJ2" s="377"/>
-      <c r="BK2" s="378"/>
-      <c r="BL2" s="376" t="s">
+      <c r="AH2" s="385"/>
+      <c r="AI2" s="385"/>
+      <c r="AJ2" s="385"/>
+      <c r="AK2" s="385"/>
+      <c r="AL2" s="385"/>
+      <c r="AM2" s="385"/>
+      <c r="AN2" s="385"/>
+      <c r="AO2" s="385"/>
+      <c r="AP2" s="385"/>
+      <c r="AQ2" s="385"/>
+      <c r="AR2" s="385"/>
+      <c r="AS2" s="385"/>
+      <c r="AT2" s="385"/>
+      <c r="AU2" s="385"/>
+      <c r="AV2" s="385"/>
+      <c r="AW2" s="385"/>
+      <c r="AX2" s="385"/>
+      <c r="AY2" s="385"/>
+      <c r="AZ2" s="385"/>
+      <c r="BA2" s="385"/>
+      <c r="BB2" s="385"/>
+      <c r="BC2" s="385"/>
+      <c r="BD2" s="385"/>
+      <c r="BE2" s="385"/>
+      <c r="BF2" s="385"/>
+      <c r="BG2" s="385"/>
+      <c r="BH2" s="385"/>
+      <c r="BI2" s="385"/>
+      <c r="BJ2" s="385"/>
+      <c r="BK2" s="387"/>
+      <c r="BL2" s="386" t="s">
         <v>424</v>
       </c>
-      <c r="BM2" s="377"/>
-      <c r="BN2" s="377"/>
-      <c r="BO2" s="377"/>
-      <c r="BP2" s="377"/>
-      <c r="BQ2" s="377"/>
-      <c r="BR2" s="377"/>
-      <c r="BS2" s="377"/>
-      <c r="BT2" s="377"/>
-      <c r="BU2" s="377"/>
-      <c r="BV2" s="377"/>
-      <c r="BW2" s="377"/>
-      <c r="BX2" s="377"/>
-      <c r="BY2" s="377"/>
-      <c r="BZ2" s="377"/>
-      <c r="CA2" s="377"/>
-      <c r="CB2" s="377"/>
-      <c r="CC2" s="377"/>
-      <c r="CD2" s="377"/>
-      <c r="CE2" s="377"/>
-      <c r="CF2" s="377"/>
-      <c r="CG2" s="377"/>
-      <c r="CH2" s="377"/>
-      <c r="CI2" s="377"/>
-      <c r="CJ2" s="377"/>
-      <c r="CK2" s="377"/>
-      <c r="CL2" s="377"/>
-      <c r="CM2" s="377"/>
-      <c r="CN2" s="377"/>
-      <c r="CO2" s="377"/>
-      <c r="CP2" s="376" t="s">
+      <c r="BM2" s="385"/>
+      <c r="BN2" s="385"/>
+      <c r="BO2" s="385"/>
+      <c r="BP2" s="385"/>
+      <c r="BQ2" s="385"/>
+      <c r="BR2" s="385"/>
+      <c r="BS2" s="385"/>
+      <c r="BT2" s="385"/>
+      <c r="BU2" s="385"/>
+      <c r="BV2" s="385"/>
+      <c r="BW2" s="385"/>
+      <c r="BX2" s="385"/>
+      <c r="BY2" s="385"/>
+      <c r="BZ2" s="385"/>
+      <c r="CA2" s="385"/>
+      <c r="CB2" s="385"/>
+      <c r="CC2" s="385"/>
+      <c r="CD2" s="385"/>
+      <c r="CE2" s="385"/>
+      <c r="CF2" s="385"/>
+      <c r="CG2" s="385"/>
+      <c r="CH2" s="385"/>
+      <c r="CI2" s="385"/>
+      <c r="CJ2" s="385"/>
+      <c r="CK2" s="385"/>
+      <c r="CL2" s="385"/>
+      <c r="CM2" s="385"/>
+      <c r="CN2" s="385"/>
+      <c r="CO2" s="385"/>
+      <c r="CP2" s="386" t="s">
         <v>425</v>
       </c>
-      <c r="CQ2" s="377"/>
-      <c r="CR2" s="377"/>
-      <c r="CS2" s="377"/>
-      <c r="CT2" s="377"/>
-      <c r="CU2" s="377"/>
-      <c r="CV2" s="377"/>
-      <c r="CW2" s="377"/>
-      <c r="CX2" s="377"/>
-      <c r="CY2" s="377"/>
-      <c r="CZ2" s="377"/>
-      <c r="DA2" s="377"/>
-      <c r="DB2" s="377"/>
-      <c r="DC2" s="377"/>
-      <c r="DD2" s="377"/>
-      <c r="DE2" s="377"/>
-      <c r="DF2" s="377"/>
-      <c r="DG2" s="377"/>
-      <c r="DH2" s="377"/>
-      <c r="DI2" s="377"/>
-      <c r="DJ2" s="377"/>
-      <c r="DK2" s="377"/>
-      <c r="DL2" s="377"/>
-      <c r="DM2" s="377"/>
-      <c r="DN2" s="377"/>
-      <c r="DO2" s="377"/>
-      <c r="DP2" s="377"/>
-      <c r="DQ2" s="377"/>
-      <c r="DR2" s="377"/>
-      <c r="DS2" s="377"/>
-      <c r="DT2" s="378"/>
-      <c r="DU2" s="379" t="s">
+      <c r="CQ2" s="385"/>
+      <c r="CR2" s="385"/>
+      <c r="CS2" s="385"/>
+      <c r="CT2" s="385"/>
+      <c r="CU2" s="385"/>
+      <c r="CV2" s="385"/>
+      <c r="CW2" s="385"/>
+      <c r="CX2" s="385"/>
+      <c r="CY2" s="385"/>
+      <c r="CZ2" s="385"/>
+      <c r="DA2" s="385"/>
+      <c r="DB2" s="385"/>
+      <c r="DC2" s="385"/>
+      <c r="DD2" s="385"/>
+      <c r="DE2" s="385"/>
+      <c r="DF2" s="385"/>
+      <c r="DG2" s="385"/>
+      <c r="DH2" s="385"/>
+      <c r="DI2" s="385"/>
+      <c r="DJ2" s="385"/>
+      <c r="DK2" s="385"/>
+      <c r="DL2" s="385"/>
+      <c r="DM2" s="385"/>
+      <c r="DN2" s="385"/>
+      <c r="DO2" s="385"/>
+      <c r="DP2" s="385"/>
+      <c r="DQ2" s="385"/>
+      <c r="DR2" s="385"/>
+      <c r="DS2" s="385"/>
+      <c r="DT2" s="387"/>
+      <c r="DU2" s="388" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="388"/>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="391"/>
+      <c r="A3" s="381"/>
+      <c r="B3" s="382"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="384"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -24131,14 +24135,14 @@
       <c r="DT3" s="75">
         <v>31</v>
       </c>
-      <c r="DU3" s="380"/>
+      <c r="DU3" s="389"/>
     </row>
     <row r="4" spans="1:125" s="83" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="76"/>
-      <c r="B4" s="381" t="s">
+      <c r="B4" s="390" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="382"/>
+      <c r="C4" s="391"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -27127,11 +27131,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:AF2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="CP2:DT2"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="B4:C4"/>
@@ -27139,13 +27145,11 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="AG2:BK2"/>
     <mergeCell ref="BL2:CO2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27688,10 +27692,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27722,6 +27726,11 @@
     <row r="5" spans="1:1">
       <c r="A5" s="364" t="s">
         <v>989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="364" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
